--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_351.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_351.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d79212-Reviews-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hilton-Pasadena.h25474.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528682328142&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=cdcf9dd1-c96b-4c87-aa5e-254acb39d743&amp;mctc=9&amp;exp_dp=220.44&amp;exp_ts=1528682328738&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_351.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_351.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1025 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r592188341-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32859</t>
+  </si>
+  <si>
+    <t>79212</t>
+  </si>
+  <si>
+    <t>592188341</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lovely stay, enhanced by pleasant staff </t>
+  </si>
+  <si>
+    <t>We stayed at the Hilton Pasadena from June 28th through to July 4th to attend a convention. 
+Prior to arrival, Hilton staff via Twitter helped enormously to resolve room wishes and indeed everything we had hoped for (high floor, away from lift, a view if possible) had all been met. We were allocated room 1027.  Check in was swift and without problem. 
+1027 is a mountain view king delux room. It does have a view of the mountains to the left of the balcony. There is street noise but it’s a city centre hotel and that’s always to be expected. The balcony has two chairs and a table and is a nice place for morning coffee. 
+The room was immaculate and I am quick to spot when it is not! Our room was serviced by Raina who was fast and efficient each day. She cheerfully greeted us despite having an enormous workload. Her work was exemplary. 
+The bathroom is large with a shower over tub and a large vanity sink area. There is a very large well lit mirror and the lighting in the bathroom is excellent. There are a number of rails to the bathroom and tub area which are incredibly helpful for accessing the tub but are decorative as well. Great idea.  Good quality Crabtree and Evelyn toiletry products were provided daily. 
+1027 has a wet bar area - which was a small microwave, small fridge and a...We stayed at the Hilton Pasadena from June 28th through to July 4th to attend a convention. Prior to arrival, Hilton staff via Twitter helped enormously to resolve room wishes and indeed everything we had hoped for (high floor, away from lift, a view if possible) had all been met. We were allocated room 1027.  Check in was swift and without problem. 1027 is a mountain view king delux room. It does have a view of the mountains to the left of the balcony. There is street noise but it’s a city centre hotel and that’s always to be expected. The balcony has two chairs and a table and is a nice place for morning coffee. The room was immaculate and I am quick to spot when it is not! Our room was serviced by Raina who was fast and efficient each day. She cheerfully greeted us despite having an enormous workload. Her work was exemplary. The bathroom is large with a shower over tub and a large vanity sink area. There is a very large well lit mirror and the lighting in the bathroom is excellent. There are a number of rails to the bathroom and tub area which are incredibly helpful for accessing the tub but are decorative as well. Great idea.  Good quality Crabtree and Evelyn toiletry products were provided daily. 1027 has a wet bar area - which was a small microwave, small fridge and a sink all on a  large counter top. There is a room safe in this area capable of storing a 17 inch laptop and other items. Coffee, tea and bottled still water was replenished daily. The bed was a large king size one with nice linens. I’d have loved more pillows but that’s me being greedy! If I had an area of improvement it would be that this rooms closet has no hanging area for full length items. Just suitable to store shirts, t shirt and trousers. So my dresses sadly puddled on the floor. Otherwise it was perfect. The lobby area of the hotel is large, airy, bright and imposing. There is easy access to the restaurant and bar and there was a good atmosphere in both areas. Snacks, including fruit, salads and sandwiches were available from a little ‘grocery closet’ near reception. Very handy when in a rush.  We did not have breakfast in the restaurant which was around $19 per person. Parking is expensive here at in excess of $20 a night. But it’s very clear on costs so patrons do have a choice. However there is very reasonable ($9 parking) within a moderate distance - we used Paseo Colorado which took 5-6 minutes max to walk to. It’s not an in / out rate - it’s a one off fee but it worked well for us. If you get the ticket validated in a linked shopping store - parking dropped to $6. The other hotel charge is the wifi at $10 a night.  Our convention rate meant this was free to us but it would have been odd to pay so much otherwise. The staff at the hotel were fabulous. The parking people were helpful when we need to  run in with shopping bags giving us a few minutes to get them to the room before we left their lot to park, the front counter staff were friendly and professional at all times and went out of their way to be helpful. I had an engineer visit to fix the fridge and even though very busy, he was warm and thoughtful in his attitude.  The free shuttle was really handy and Luiz was very flexible and helpful with information. The manager has developed a great team here who are a credit to the Hilton brand. I am looking forward to the rest of my stay and hope to return.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed at the Hilton Pasadena from June 28th through to July 4th to attend a convention. 
+Prior to arrival, Hilton staff via Twitter helped enormously to resolve room wishes and indeed everything we had hoped for (high floor, away from lift, a view if possible) had all been met. We were allocated room 1027.  Check in was swift and without problem. 
+1027 is a mountain view king delux room. It does have a view of the mountains to the left of the balcony. There is street noise but it’s a city centre hotel and that’s always to be expected. The balcony has two chairs and a table and is a nice place for morning coffee. 
+The room was immaculate and I am quick to spot when it is not! Our room was serviced by Raina who was fast and efficient each day. She cheerfully greeted us despite having an enormous workload. Her work was exemplary. 
+The bathroom is large with a shower over tub and a large vanity sink area. There is a very large well lit mirror and the lighting in the bathroom is excellent. There are a number of rails to the bathroom and tub area which are incredibly helpful for accessing the tub but are decorative as well. Great idea.  Good quality Crabtree and Evelyn toiletry products were provided daily. 
+1027 has a wet bar area - which was a small microwave, small fridge and a...We stayed at the Hilton Pasadena from June 28th through to July 4th to attend a convention. Prior to arrival, Hilton staff via Twitter helped enormously to resolve room wishes and indeed everything we had hoped for (high floor, away from lift, a view if possible) had all been met. We were allocated room 1027.  Check in was swift and without problem. 1027 is a mountain view king delux room. It does have a view of the mountains to the left of the balcony. There is street noise but it’s a city centre hotel and that’s always to be expected. The balcony has two chairs and a table and is a nice place for morning coffee. The room was immaculate and I am quick to spot when it is not! Our room was serviced by Raina who was fast and efficient each day. She cheerfully greeted us despite having an enormous workload. Her work was exemplary. The bathroom is large with a shower over tub and a large vanity sink area. There is a very large well lit mirror and the lighting in the bathroom is excellent. There are a number of rails to the bathroom and tub area which are incredibly helpful for accessing the tub but are decorative as well. Great idea.  Good quality Crabtree and Evelyn toiletry products were provided daily. 1027 has a wet bar area - which was a small microwave, small fridge and a sink all on a  large counter top. There is a room safe in this area capable of storing a 17 inch laptop and other items. Coffee, tea and bottled still water was replenished daily. The bed was a large king size one with nice linens. I’d have loved more pillows but that’s me being greedy! If I had an area of improvement it would be that this rooms closet has no hanging area for full length items. Just suitable to store shirts, t shirt and trousers. So my dresses sadly puddled on the floor. Otherwise it was perfect. The lobby area of the hotel is large, airy, bright and imposing. There is easy access to the restaurant and bar and there was a good atmosphere in both areas. Snacks, including fruit, salads and sandwiches were available from a little ‘grocery closet’ near reception. Very handy when in a rush.  We did not have breakfast in the restaurant which was around $19 per person. Parking is expensive here at in excess of $20 a night. But it’s very clear on costs so patrons do have a choice. However there is very reasonable ($9 parking) within a moderate distance - we used Paseo Colorado which took 5-6 minutes max to walk to. It’s not an in / out rate - it’s a one off fee but it worked well for us. If you get the ticket validated in a linked shopping store - parking dropped to $6. The other hotel charge is the wifi at $10 a night.  Our convention rate meant this was free to us but it would have been odd to pay so much otherwise. The staff at the hotel were fabulous. The parking people were helpful when we need to  run in with shopping bags giving us a few minutes to get them to the room before we left their lot to park, the front counter staff were friendly and professional at all times and went out of their way to be helpful. I had an engineer visit to fix the fridge and even though very busy, he was warm and thoughtful in his attitude.  The free shuttle was really handy and Luiz was very flexible and helpful with information. The manager has developed a great team here who are a credit to the Hilton brand. I am looking forward to the rest of my stay and hope to return.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r591424294-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>591424294</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Small suite</t>
+  </si>
+  <si>
+    <t>We booked a suite for our daughter's wedding weekend.  The bathroom was tiny with no counter-space for toiletries or makeup and no hooks for towels. The shower was nice but not even enough space to dry ourselves in comfort.  The closet space was also very inconvenient, with no hooks or space for two suitcases.  Seems like the suite was designed for business presentations rather than spacious accommodations for leisure visits. Definitely not worth the price Hilton charged us - even with the room block discount.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r591317175-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>591317175</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice chic hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall very nice hotel. Street parking over night in the residential area with permit only. Otherwise you pay for parking in the hotel. The sliding glass barn style door to the bathroom may be a problem for some. At night, the light will filter through the glass and could unintended wake others up when you use the bathroom.  Rooms facing the streets are quiet as I could not hear any road noises </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r590722494-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>590722494</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Great experience as one would expect from a Hilton. Nicely located in downtown Pasadena. One issue is that the parking is expensive. WiFi worked great. Did not use hotel's dining service as plenty of restaurant at walking distance. Will stay again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r590013946-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>590013946</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Tiny room and average hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was small and the mountain view was from an angle since the hotel faces east and not north.  The self parking is sub-par and there are no elevators from the upper levels and you have to walk the driveway ramp to access the hotel entrance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r587156620-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>587156620</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large rooms &amp; great service </t>
+  </si>
+  <si>
+    <t>My room was gorgeous- large, very clean, and with a wonderful view. The staff was all so nice &amp; everything was so fast- my room service and extra toiletries  I requested each came in minutes. The free (slower) Wi-Fi was great for checking emails and browsing the Internet. MoreShow less</t>
+  </si>
+  <si>
+    <t>HiltonPasadena, General Manager at Hilton Pasadena, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>My room was gorgeous- large, very clean, and with a wonderful view. The staff was all so nice &amp; everything was so fast- my room service and extra toiletries  I requested each came in minutes. The free (slower) Wi-Fi was great for checking emails and browsing the Internet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r586802563-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>586802563</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Work trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went here for work trip, the parking structure should have better markings as far as where toy can park. The staff at breakfast were very helpful. Had to use Concur ro reserve the room. Didn't see the option to add breakfast, a bit pricey but I've  had worse </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r586614677-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>586614677</t>
+  </si>
+  <si>
+    <t>Great selection for business travel</t>
+  </si>
+  <si>
+    <t>Wonderful accommodations and numerous services available onsite. I could grab coffee at Starbuck’s and work out at the gym. The food service offered dining at the restaurant or room service. The location is close to other restaurants and the interstate so you can commute with ease.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful accommodations and numerous services available onsite. I could grab coffee at Starbuck’s and work out at the gym. The food service offered dining at the restaurant or room service. The location is close to other restaurants and the interstate so you can commute with ease.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r585864979-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>585864979</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Pasadena Hilton</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay at the Hilton.  It is about 5 blocks from the convention center and shopping and restaurant area.  You receive two water bottles a day included in your stay.  I thought this was a nice touch.  The rooms were clean and bed comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay at the Hilton.  It is about 5 blocks from the convention center and shopping and restaurant area.  You receive two water bottles a day included in your stay.  I thought this was a nice touch.  The rooms were clean and bed comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r583717352-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>583717352</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Beautiful renovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve stayed at this hotel many years ago. The interior and rooms have had a complete renovation, it’s quite beautifully updated and the service was excellent.  We were in town to attend a friends birthday celebration, perfect location in Pasadena, one of my favorite Southern CA cities. . </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r582300773-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>582300773</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Renovations Complete, Another Good Stay</t>
+  </si>
+  <si>
+    <t>I wrote a previous review that was taken down since the property was renovated, although I stayed in a renovated room on my last visit, as well. Overall, I like this hotel. I find the staff friendly, I appreciate free water bottles (and truly don't understand why this isn't an industry standard,) the beds are comfortable and the bathrooms are almost great. The bathroom doors are the one big complaint I have, and they keep me from adding that 5th star. They slide on a track and do not close well, even worse as ours came off the track pushing the door further out and adding to the space on either side of the door - forget any kind of privacy. Further, if you are sharing the room and your roomie decides to use the bathroom in the middle of the night, the doors are translucent so the light floods the entire room. Honestly, this is the worst bathroom door design I've ever seen. I was with my husband, but if I were traveling with a friend, I would feel a complete lack of privacy as you can look right in on both sides and hear everything (do I need to elaborate any more???) That said, I want to compliment the breakfast buffet - it was beautifully presented, fresh and had lots of variety. I want to give a special shout out to our server, Tino. He made me and...I wrote a previous review that was taken down since the property was renovated, although I stayed in a renovated room on my last visit, as well. Overall, I like this hotel. I find the staff friendly, I appreciate free water bottles (and truly don't understand why this isn't an industry standard,) the beds are comfortable and the bathrooms are almost great. The bathroom doors are the one big complaint I have, and they keep me from adding that 5th star. They slide on a track and do not close well, even worse as ours came off the track pushing the door further out and adding to the space on either side of the door - forget any kind of privacy. Further, if you are sharing the room and your roomie decides to use the bathroom in the middle of the night, the doors are translucent so the light floods the entire room. Honestly, this is the worst bathroom door design I've ever seen. I was with my husband, but if I were traveling with a friend, I would feel a complete lack of privacy as you can look right in on both sides and hear everything (do I need to elaborate any more???) That said, I want to compliment the breakfast buffet - it was beautifully presented, fresh and had lots of variety. I want to give a special shout out to our server, Tino. He made me and my parents feel so welcome, paid attention to every detail and was as warm and delightful as anyone could be. I felt like he was serving us in his own home. There was another woman  working that morning (I'm sorry, I forget her name,) and she made a point to come and greet us at the end, also unbelievably lovely and gracious. So, I truly hate the bathroom doors, and I hope someone forwards this to the person who came up with the dumbest design imaginable and the corporate dingalings who approved it! Otherwise, this is a fine hotel with all-round pleasant staff and I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wrote a previous review that was taken down since the property was renovated, although I stayed in a renovated room on my last visit, as well. Overall, I like this hotel. I find the staff friendly, I appreciate free water bottles (and truly don't understand why this isn't an industry standard,) the beds are comfortable and the bathrooms are almost great. The bathroom doors are the one big complaint I have, and they keep me from adding that 5th star. They slide on a track and do not close well, even worse as ours came off the track pushing the door further out and adding to the space on either side of the door - forget any kind of privacy. Further, if you are sharing the room and your roomie decides to use the bathroom in the middle of the night, the doors are translucent so the light floods the entire room. Honestly, this is the worst bathroom door design I've ever seen. I was with my husband, but if I were traveling with a friend, I would feel a complete lack of privacy as you can look right in on both sides and hear everything (do I need to elaborate any more???) That said, I want to compliment the breakfast buffet - it was beautifully presented, fresh and had lots of variety. I want to give a special shout out to our server, Tino. He made me and...I wrote a previous review that was taken down since the property was renovated, although I stayed in a renovated room on my last visit, as well. Overall, I like this hotel. I find the staff friendly, I appreciate free water bottles (and truly don't understand why this isn't an industry standard,) the beds are comfortable and the bathrooms are almost great. The bathroom doors are the one big complaint I have, and they keep me from adding that 5th star. They slide on a track and do not close well, even worse as ours came off the track pushing the door further out and adding to the space on either side of the door - forget any kind of privacy. Further, if you are sharing the room and your roomie decides to use the bathroom in the middle of the night, the doors are translucent so the light floods the entire room. Honestly, this is the worst bathroom door design I've ever seen. I was with my husband, but if I were traveling with a friend, I would feel a complete lack of privacy as you can look right in on both sides and hear everything (do I need to elaborate any more???) That said, I want to compliment the breakfast buffet - it was beautifully presented, fresh and had lots of variety. I want to give a special shout out to our server, Tino. He made me and my parents feel so welcome, paid attention to every detail and was as warm and delightful as anyone could be. I felt like he was serving us in his own home. There was another woman  working that morning (I'm sorry, I forget her name,) and she made a point to come and greet us at the end, also unbelievably lovely and gracious. So, I truly hate the bathroom doors, and I hope someone forwards this to the person who came up with the dumbest design imaginable and the corporate dingalings who approved it! Otherwise, this is a fine hotel with all-round pleasant staff and I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r581808660-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>581808660</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service Like Always</t>
+  </si>
+  <si>
+    <t>Once again Randall Cervera, the Banquet Captain, and his team were on top of their game. We've grown accustomed to fast, efficient and always friendly service at the Hilton Pasadena. That is why we'll be back soon!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r577923819-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>577923819</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Well done Hilton</t>
+  </si>
+  <si>
+    <t>This visit was my fourth year in a row staying at The Hilton Pasadena. I stayed for 4 nights with 4 nights in Las Vegas, followed by another 4 nights. The improvements that have been done are excellent. The reception desk has someone at hand each time I went to it. The rooms were clean and the bed very comfortable.I would like to give a special mention to Jennifer and Rhina @ the Corner. They looked after the bar with huge smiles on their faces and made me feel very welcome. I look forward to visiting again in 2019.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>HiltonPasadena, General Manager at Hilton Pasadena, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>This visit was my fourth year in a row staying at The Hilton Pasadena. I stayed for 4 nights with 4 nights in Las Vegas, followed by another 4 nights. The improvements that have been done are excellent. The reception desk has someone at hand each time I went to it. The rooms were clean and the bed very comfortable.I would like to give a special mention to Jennifer and Rhina @ the Corner. They looked after the bar with huge smiles on their faces and made me feel very welcome. I look forward to visiting again in 2019.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r577853738-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>577853738</t>
+  </si>
+  <si>
+    <t>Good location and the remodel has made this hotel a lot nicer</t>
+  </si>
+  <si>
+    <t>The remodel has made the rooms very nice. The hotel is overall quite and nicely done. The restaurant isn't bad either but there is a lot of stuff within walking distance. Last time I stayed here the remodel wasn't done and it wasn't nice but with the remodel done the rooms are nice now.MoreShow less</t>
+  </si>
+  <si>
+    <t>The remodel has made the rooms very nice. The hotel is overall quite and nicely done. The restaurant isn't bad either but there is a lot of stuff within walking distance. Last time I stayed here the remodel wasn't done and it wasn't nice but with the remodel done the rooms are nice now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r577519966-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>577519966</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Amazing property!</t>
+  </si>
+  <si>
+    <t>From the moment I was greeted when I drove up, I felt welcome. Fresh air lobby and modern room also welcomed me. Anything I needed, the staff went above and beyond, including a local shuttle for me and my friend who were attending an event. My room was fresh and clean and the balcony was so nice to appreciate the very cool neighborhood of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment I was greeted when I drove up, I felt welcome. Fresh air lobby and modern room also welcomed me. Anything I needed, the staff went above and beyond, including a local shuttle for me and my friend who were attending an event. My room was fresh and clean and the balcony was so nice to appreciate the very cool neighborhood of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r575933572-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>575933572</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Patrick is the Man!</t>
+  </si>
+  <si>
+    <t>Front Office Manger Patrick Macalalag was superb in his not only his service but his gracious persona and attitude really made a huge impression on not only myself but my family who also stayed on the property. He made our stay so wonderful that the Hilton Pasadena will now be the main property we will stay at while in southern California as often as possible. Thank you for all of your help this past weekend Patrick! you are awesome! hope to see you again soon.Jason Cardoza &amp; FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Front Office Manger Patrick Macalalag was superb in his not only his service but his gracious persona and attitude really made a huge impression on not only myself but my family who also stayed on the property. He made our stay so wonderful that the Hilton Pasadena will now be the main property we will stay at while in southern California as often as possible. Thank you for all of your help this past weekend Patrick! you are awesome! hope to see you again soon.Jason Cardoza &amp; FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r575729694-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>575729694</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Helpful and friendly staff.</t>
+  </si>
+  <si>
+    <t>The hotel is in a nice central location. We were attending a wedding offsite. Staff was very friendly and helpful during our stay. The hotel is very modern in decor with a restaurant bar on the main floor. Our room seemed new or newly remodeled with comfortable bed, linen . large flatscreen TV, mini bar and coffee maker. The room and bathroom were spacious with nice towels and amenities. Parking was reasonably priced. There are no porters for assistance with luggage. Although we originally had a higher room floor reserved it was not yet ready so we were offered a lower room for our stay which was fine for our purpose but if view is important you would want to stay on a higher floor. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is in a nice central location. We were attending a wedding offsite. Staff was very friendly and helpful during our stay. The hotel is very modern in decor with a restaurant bar on the main floor. Our room seemed new or newly remodeled with comfortable bed, linen . large flatscreen TV, mini bar and coffee maker. The room and bathroom were spacious with nice towels and amenities. Parking was reasonably priced. There are no porters for assistance with luggage. Although we originally had a higher room floor reserved it was not yet ready so we were offered a lower room for our stay which was fine for our purpose but if view is important you would want to stay on a higher floor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r575405265-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>575405265</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Conference Stay</t>
+  </si>
+  <si>
+    <t>We had a very nice stay at The Hilton Pasadena. There were four of us headed to a conference. Everything was in walking distance and we felt very safe walking to dinner in the evening and walking back. There were plenty of staff to meet any needs we may have had.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r572523072-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>572523072</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Very nice stay, very friendly staff.  Showers/water is easily heard from above or next door, but not awful.  Ear plugs were provided as it is on a somewhat busy street - a nice touch I thought.  Room service was fast and yummy, and valet was excellent.  I would consider staying again if I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>HiltonPasadena, General Manager at Hilton Pasadena, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Very nice stay, very friendly staff.  Showers/water is easily heard from above or next door, but not awful.  Ear plugs were provided as it is on a somewhat busy street - a nice touch I thought.  Room service was fast and yummy, and valet was excellent.  I would consider staying again if I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r571991687-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>571991687</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Good pillows</t>
+  </si>
+  <si>
+    <t>One night stay following a corporate event hosted at the hotel.  Nice modern rooms.  Really good pillows.  Small but updated bathrooms.Would have appreciated some lobby coffee in the morning.I am a light sleeper and could hear my neighbor snoring in the morning.There’s a nice shopping area nearby with some good looking restaurants.Pool is pretty small.Overall a modern place and pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>One night stay following a corporate event hosted at the hotel.  Nice modern rooms.  Really good pillows.  Small but updated bathrooms.Would have appreciated some lobby coffee in the morning.I am a light sleeper and could hear my neighbor snoring in the morning.There’s a nice shopping area nearby with some good looking restaurants.Pool is pretty small.Overall a modern place and pretty good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r571580074-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>571580074</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>This is a beautiful Hilton hotel with a recent renovation. We had a great room on the 8th floor with a view of the mountains. The only problem we had is with the HVAC system they have. The new wall thermostats have motion sensors on them. When they don't detect movement the temperature defaults to a preset setting. In this case the setting is 71*. My wife suffers from migraines which can be triggered at night by heat. We went to sleep with the temperature set at 65*. When it defaulted to 71* due to no movement my wife experienced a migraine. The hotel staff were so supportive. Jayne Betts the manager on duty did a great job identifying the problem. I want to thank her along with Gilbert who was my initial contact at the front desk and Dan and George who are the technicians who worked with us to get the room cooled down. With the room cooled down my wife was able to recover. The hotel staff were so accommodating. I could not of asked for more than everything they did. Ultimately everyone should be aware that thermostats in some hotels may have a motion sensor. They can override this feature if you request it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>This is a beautiful Hilton hotel with a recent renovation. We had a great room on the 8th floor with a view of the mountains. The only problem we had is with the HVAC system they have. The new wall thermostats have motion sensors on them. When they don't detect movement the temperature defaults to a preset setting. In this case the setting is 71*. My wife suffers from migraines which can be triggered at night by heat. We went to sleep with the temperature set at 65*. When it defaulted to 71* due to no movement my wife experienced a migraine. The hotel staff were so supportive. Jayne Betts the manager on duty did a great job identifying the problem. I want to thank her along with Gilbert who was my initial contact at the front desk and Dan and George who are the technicians who worked with us to get the room cooled down. With the room cooled down my wife was able to recover. The hotel staff were so accommodating. I could not of asked for more than everything they did. Ultimately everyone should be aware that thermostats in some hotels may have a motion sensor. They can override this feature if you request it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r569877027-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>569877027</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Solid Stay</t>
+  </si>
+  <si>
+    <t>It was a quintessential Hilton. Clean and updated rooms, with a great front desk staff. Breakfast as a Diamond is included but other wise it’s a bit pricey. Workout room had enough treadmills for multiple users at once. I’d definitely return. MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a quintessential Hilton. Clean and updated rooms, with a great front desk staff. Breakfast as a Diamond is included but other wise it’s a bit pricey. Workout room had enough treadmills for multiple users at once. I’d definitely return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r569855874-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>569855874</t>
+  </si>
+  <si>
+    <t>Outstanding!</t>
+  </si>
+  <si>
+    <t>Great location, convenient parking, beautiful hotel.  We were in a different hotel, but moved out due to excessive noise, and just now the quality we were hoping for the price.  I should have made reservations at Hilton from the beginning.  So quite, such great quality.  Walking distance to great restaurants, jogging in some quiet neighborhoods--and the sunrise near the mountains is gorgeous.  We plan to stay there again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, convenient parking, beautiful hotel.  We were in a different hotel, but moved out due to excessive noise, and just now the quality we were hoping for the price.  I should have made reservations at Hilton from the beginning.  So quite, such great quality.  Walking distance to great restaurants, jogging in some quiet neighborhoods--and the sunrise near the mountains is gorgeous.  We plan to stay there again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r568196529-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>568196529</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Very pleasant stay!</t>
+  </si>
+  <si>
+    <t>The hotel was convenient and with in walking distance to the Convention center.  I felt safe and the walk was pleasant.  The staff were business like and pleasant and helpful.  Room was clean, bed was comfortable and quite.  Felt rested in the AM.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was convenient and with in walking distance to the Convention center.  I felt safe and the walk was pleasant.  The staff were business like and pleasant and helpful.  Room was clean, bed was comfortable and quite.  Felt rested in the AM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r566162762-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>566162762</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Clean room, friendly staff</t>
+  </si>
+  <si>
+    <t>Everything was up to my expectations. Good size room, everything worked properly  Plenty of convenient charge points. Wifi performed well, reliable. Complimentary drinking water was nice touch (but none on last day for some reason ). Recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was up to my expectations. Good size room, everything worked properly  Plenty of convenient charge points. Wifi performed well, reliable. Complimentary drinking water was nice touch (but none on last day for some reason ). Recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r566084200-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>566084200</t>
+  </si>
+  <si>
+    <t>Convenient location near shopping, civic center, convention center</t>
+  </si>
+  <si>
+    <t>Every year, I go to a conference at the Pasadena Convention Center. The Hilton Pasadena is one of two chain hotels close to the Convention Center, and I finally decided to stay here, even though the rates are somewhat higher than the places I had previously stayed. 
+The Hilton Pasadena is a pretty good place overall. Extra points for the excellent fitness center. My room was comfortable, and everything worked fine. I liked the "down-ish" pillows and the in-room refrigerator. You can also order a microwave, but I didn't. 
+It's about 4 blocks to the LA Metro Del Mar stop, which is an easy and cheap way to get to downtown LA without driving the 110. It's also about 4 blocks from the hotel to the large Whole Foods Market on Arroyo Parkway, a block south of Del Mar. 
+But there are some negatives. I strongly dislike the Hilton chain-wide policy of 2-tier Internet service. If you are a Hilton member and book directly with the hotel, you get free low tier Internet service. But if you want to stream video, then you have to pay for "premium" Internet service, formerly $5/day, but now $10/day. But it's still slower than what I got for free at a Best Western the week before.
+Also, the Hilton Pasadena charges $21 daily for self-parking and $23 for valet. If you are diligent, you can find free overnight parking on Oakland Street, a block...Every year, I go to a conference at the Pasadena Convention Center. The Hilton Pasadena is one of two chain hotels close to the Convention Center, and I finally decided to stay here, even though the rates are somewhat higher than the places I had previously stayed. The Hilton Pasadena is a pretty good place overall. Extra points for the excellent fitness center. My room was comfortable, and everything worked fine. I liked the "down-ish" pillows and the in-room refrigerator. You can also order a microwave, but I didn't. It's about 4 blocks to the LA Metro Del Mar stop, which is an easy and cheap way to get to downtown LA without driving the 110. It's also about 4 blocks from the hotel to the large Whole Foods Market on Arroyo Parkway, a block south of Del Mar. But there are some negatives. I strongly dislike the Hilton chain-wide policy of 2-tier Internet service. If you are a Hilton member and book directly with the hotel, you get free low tier Internet service. But if you want to stream video, then you have to pay for "premium" Internet service, formerly $5/day, but now $10/day. But it's still slower than what I got for free at a Best Western the week before.Also, the Hilton Pasadena charges $21 daily for self-parking and $23 for valet. If you are diligent, you can find free overnight parking on Oakland Street, a block east of the hotel. Alternatively, you can park a block away in one of the Paseo Colorado garages for $9/overnight, but without in/out privileges.Finally, don't even think about room service.  It's available until 11pm, but the surcharges include 23% for service, a $3.50 fee, and more, on top of the menu prices. I know that these charges are quite common for such hotels, but you have so many options within easy and safe walking distance that it would make no sense to use room service. Besides, you can choose from hundreds of restaurants that offer delivery service via web apps.Bottom line: if I had a company to pay my bill, then I would return here for next year's conference. If I'm paying out of my own pocket, then I will economize and look around the area for a well-rated place with a significantly lower room rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Every year, I go to a conference at the Pasadena Convention Center. The Hilton Pasadena is one of two chain hotels close to the Convention Center, and I finally decided to stay here, even though the rates are somewhat higher than the places I had previously stayed. 
+The Hilton Pasadena is a pretty good place overall. Extra points for the excellent fitness center. My room was comfortable, and everything worked fine. I liked the "down-ish" pillows and the in-room refrigerator. You can also order a microwave, but I didn't. 
+It's about 4 blocks to the LA Metro Del Mar stop, which is an easy and cheap way to get to downtown LA without driving the 110. It's also about 4 blocks from the hotel to the large Whole Foods Market on Arroyo Parkway, a block south of Del Mar. 
+But there are some negatives. I strongly dislike the Hilton chain-wide policy of 2-tier Internet service. If you are a Hilton member and book directly with the hotel, you get free low tier Internet service. But if you want to stream video, then you have to pay for "premium" Internet service, formerly $5/day, but now $10/day. But it's still slower than what I got for free at a Best Western the week before.
+Also, the Hilton Pasadena charges $21 daily for self-parking and $23 for valet. If you are diligent, you can find free overnight parking on Oakland Street, a block...Every year, I go to a conference at the Pasadena Convention Center. The Hilton Pasadena is one of two chain hotels close to the Convention Center, and I finally decided to stay here, even though the rates are somewhat higher than the places I had previously stayed. The Hilton Pasadena is a pretty good place overall. Extra points for the excellent fitness center. My room was comfortable, and everything worked fine. I liked the "down-ish" pillows and the in-room refrigerator. You can also order a microwave, but I didn't. It's about 4 blocks to the LA Metro Del Mar stop, which is an easy and cheap way to get to downtown LA without driving the 110. It's also about 4 blocks from the hotel to the large Whole Foods Market on Arroyo Parkway, a block south of Del Mar. But there are some negatives. I strongly dislike the Hilton chain-wide policy of 2-tier Internet service. If you are a Hilton member and book directly with the hotel, you get free low tier Internet service. But if you want to stream video, then you have to pay for "premium" Internet service, formerly $5/day, but now $10/day. But it's still slower than what I got for free at a Best Western the week before.Also, the Hilton Pasadena charges $21 daily for self-parking and $23 for valet. If you are diligent, you can find free overnight parking on Oakland Street, a block east of the hotel. Alternatively, you can park a block away in one of the Paseo Colorado garages for $9/overnight, but without in/out privileges.Finally, don't even think about room service.  It's available until 11pm, but the surcharges include 23% for service, a $3.50 fee, and more, on top of the menu prices. I know that these charges are quite common for such hotels, but you have so many options within easy and safe walking distance that it would make no sense to use room service. Besides, you can choose from hundreds of restaurants that offer delivery service via web apps.Bottom line: if I had a company to pay my bill, then I would return here for next year's conference. If I'm paying out of my own pocket, then I will economize and look around the area for a well-rated place with a significantly lower room rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r565919936-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>565919936</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel in a Convenient Location to Convention Center</t>
+  </si>
+  <si>
+    <t>We stayed here the first week of February for an event at the Pasadena convention center.  We found this hotel to be conveniently located and a predictable Hilton.  We had great service at the front desk.  We were warmly welcomed as Hilton Honor members and given clear instructions about where to locate the parking garage behind the hotel for self parking.  Our room was a typical Hilton room, but had an updated look, and a fabulous view of the mountains.  The hotel was only a few blocks from the convention center, shopping, and restaurants.  It was very convenient for sure.
+Our only 2 complaints about the hotel:
+Bathroom cleanliness:  I found long black hair from the previous hotel guest in the bathtub during my shower.  This was incredibly gross to me.  The rest of the bathroom appeared clean, but the hair in the shower made me question how thoroughly the bathroom had been cleaned.
+Hotel Bar:  Horrible service at the hotel bar.  We sat at the bar both nights for a night cap, and had to hunt down the bartender both nights.  He seemed more interested in his cellphone, and counting tips than service the handful of people at the bar.
+Parking:  The signage was confusing in the parking garage behind the hotel.  This is a shared parking garage with local businesses, and we had a difficult time understanding where to park, and many of the hotel spots were three...We stayed here the first week of February for an event at the Pasadena convention center.  We found this hotel to be conveniently located and a predictable Hilton.  We had great service at the front desk.  We were warmly welcomed as Hilton Honor members and given clear instructions about where to locate the parking garage behind the hotel for self parking.  Our room was a typical Hilton room, but had an updated look, and a fabulous view of the mountains.  The hotel was only a few blocks from the convention center, shopping, and restaurants.  It was very convenient for sure.Our only 2 complaints about the hotel:Bathroom cleanliness:  I found long black hair from the previous hotel guest in the bathtub during my shower.  This was incredibly gross to me.  The rest of the bathroom appeared clean, but the hair in the shower made me question how thoroughly the bathroom had been cleaned.Hotel Bar:  Horrible service at the hotel bar.  We sat at the bar both nights for a night cap, and had to hunt down the bartender both nights.  He seemed more interested in his cellphone, and counting tips than service the handful of people at the bar.Parking:  The signage was confusing in the parking garage behind the hotel.  This is a shared parking garage with local businesses, and we had a difficult time understanding where to park, and many of the hotel spots were three cars deep (meaning you would be blocked in if you parked all the way up by the wall).  All in all, a good stay in a convenient location in Pasadena.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>We stayed here the first week of February for an event at the Pasadena convention center.  We found this hotel to be conveniently located and a predictable Hilton.  We had great service at the front desk.  We were warmly welcomed as Hilton Honor members and given clear instructions about where to locate the parking garage behind the hotel for self parking.  Our room was a typical Hilton room, but had an updated look, and a fabulous view of the mountains.  The hotel was only a few blocks from the convention center, shopping, and restaurants.  It was very convenient for sure.
+Our only 2 complaints about the hotel:
+Bathroom cleanliness:  I found long black hair from the previous hotel guest in the bathtub during my shower.  This was incredibly gross to me.  The rest of the bathroom appeared clean, but the hair in the shower made me question how thoroughly the bathroom had been cleaned.
+Hotel Bar:  Horrible service at the hotel bar.  We sat at the bar both nights for a night cap, and had to hunt down the bartender both nights.  He seemed more interested in his cellphone, and counting tips than service the handful of people at the bar.
+Parking:  The signage was confusing in the parking garage behind the hotel.  This is a shared parking garage with local businesses, and we had a difficult time understanding where to park, and many of the hotel spots were three...We stayed here the first week of February for an event at the Pasadena convention center.  We found this hotel to be conveniently located and a predictable Hilton.  We had great service at the front desk.  We were warmly welcomed as Hilton Honor members and given clear instructions about where to locate the parking garage behind the hotel for self parking.  Our room was a typical Hilton room, but had an updated look, and a fabulous view of the mountains.  The hotel was only a few blocks from the convention center, shopping, and restaurants.  It was very convenient for sure.Our only 2 complaints about the hotel:Bathroom cleanliness:  I found long black hair from the previous hotel guest in the bathtub during my shower.  This was incredibly gross to me.  The rest of the bathroom appeared clean, but the hair in the shower made me question how thoroughly the bathroom had been cleaned.Hotel Bar:  Horrible service at the hotel bar.  We sat at the bar both nights for a night cap, and had to hunt down the bartender both nights.  He seemed more interested in his cellphone, and counting tips than service the handful of people at the bar.Parking:  The signage was confusing in the parking garage behind the hotel.  This is a shared parking garage with local businesses, and we had a difficult time understanding where to park, and many of the hotel spots were three cars deep (meaning you would be blocked in if you parked all the way up by the wall).  All in all, a good stay in a convenient location in Pasadena.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r565178033-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>565178033</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Wedding Anniversary Celebration Getaway!</t>
+  </si>
+  <si>
+    <t>We can always count on Pasadena Hilton to deliver the great level of service we have come to expect from years of staying with them. Whether it's a family vacation in Kauai, family reunion or a weekend couples retreat. Our family knows they care about their guests comfort and make the extra effort of saying thank you for staying with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We can always count on Pasadena Hilton to deliver the great level of service we have come to expect from years of staying with them. Whether it's a family vacation in Kauai, family reunion or a weekend couples retreat. Our family knows they care about their guests comfort and make the extra effort of saying thank you for staying with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r564981068-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>564981068</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Staff excellent and helpful. Great location - easy to walk to many restaurants.Alicia housecleaner - excellent.  Hareg - dining room excellent.Slider doors in bathroom are loud and do not close for total privacy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r564678313-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>564678313</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Lovely hotel - horrible guests on my floor</t>
+  </si>
+  <si>
+    <t>I stayed one night at this property for a business trip.  The hotel is a lovely property.  Clean, updated decor and friendly &amp; attentive staff.  Everyone from the valet attendant to Rosie in Room Service to the waitstaff in the hotel restaurant were fantastic.  My room was nicely appointed and the restaurant food and room service cuisine were all top notch.
+Unfortunately, I was placed on the 14th floor amongst a loud group of people.  From 9:30pm-11:45pm, there was a man pacing the hallway outside my room having a very loud conversation on his cell phone.  I was trying to study for my business meeting the following morning and the noise was just too distracting.  At 11:40pm I finally called the front desk and made a noise complaint.  They said they’d alert hotel security.  I was able to get to sleep around midnight only to be awakened again at 2:30am.  This time it was a crowd of people laughing and conversing in the hall.  Knocking on doors, opening &amp; closing doors.  This continued for over one hour.  I wanted to cry.  I was exhausted and needed a good rest for my meeting the next morning.  I finally got up at 3:50am and looked out my peek hole and saw hotel security right outside my door, telling a group of women to quiet down and go to their rooms.  By 4:00am it was quiet.  I tried to fall back to sleep...I stayed one night at this property for a business trip.  The hotel is a lovely property.  Clean, updated decor and friendly &amp; attentive staff.  Everyone from the valet attendant to Rosie in Room Service to the waitstaff in the hotel restaurant were fantastic.  My room was nicely appointed and the restaurant food and room service cuisine were all top notch.Unfortunately, I was placed on the 14th floor amongst a loud group of people.  From 9:30pm-11:45pm, there was a man pacing the hallway outside my room having a very loud conversation on his cell phone.  I was trying to study for my business meeting the following morning and the noise was just too distracting.  At 11:40pm I finally called the front desk and made a noise complaint.  They said they’d alert hotel security.  I was able to get to sleep around midnight only to be awakened again at 2:30am.  This time it was a crowd of people laughing and conversing in the hall.  Knocking on doors, opening &amp; closing doors.  This continued for over one hour.  I wanted to cry.  I was exhausted and needed a good rest for my meeting the next morning.  I finally got up at 3:50am and looked out my peek hole and saw hotel security right outside my door, telling a group of women to quiet down and go to their rooms.  By 4:00am it was quiet.  I tried to fall back to sleep but by 4:15am, the party was back in the hallway.  I ended up getting maybe 2.5 hours of sleep before a 9 hour meeting and a 2.5 hour drive home.  Not happy.When I checked out in the morning, the front desk offered an apology and told me it was a Sorority group who wouldn’t be welcomed back to this hotel.  I wasn’t given any sort of discount or accommodation and that did surprise me and is why I’m only offering 3 stars.  If the rude guests were removed from my experience, this review would be 5 stars.  Not the hotel’s fault, but they should have dealt with these guests more effectively and/or offered a discount or accommodation for my inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one night at this property for a business trip.  The hotel is a lovely property.  Clean, updated decor and friendly &amp; attentive staff.  Everyone from the valet attendant to Rosie in Room Service to the waitstaff in the hotel restaurant were fantastic.  My room was nicely appointed and the restaurant food and room service cuisine were all top notch.
+Unfortunately, I was placed on the 14th floor amongst a loud group of people.  From 9:30pm-11:45pm, there was a man pacing the hallway outside my room having a very loud conversation on his cell phone.  I was trying to study for my business meeting the following morning and the noise was just too distracting.  At 11:40pm I finally called the front desk and made a noise complaint.  They said they’d alert hotel security.  I was able to get to sleep around midnight only to be awakened again at 2:30am.  This time it was a crowd of people laughing and conversing in the hall.  Knocking on doors, opening &amp; closing doors.  This continued for over one hour.  I wanted to cry.  I was exhausted and needed a good rest for my meeting the next morning.  I finally got up at 3:50am and looked out my peek hole and saw hotel security right outside my door, telling a group of women to quiet down and go to their rooms.  By 4:00am it was quiet.  I tried to fall back to sleep...I stayed one night at this property for a business trip.  The hotel is a lovely property.  Clean, updated decor and friendly &amp; attentive staff.  Everyone from the valet attendant to Rosie in Room Service to the waitstaff in the hotel restaurant were fantastic.  My room was nicely appointed and the restaurant food and room service cuisine were all top notch.Unfortunately, I was placed on the 14th floor amongst a loud group of people.  From 9:30pm-11:45pm, there was a man pacing the hallway outside my room having a very loud conversation on his cell phone.  I was trying to study for my business meeting the following morning and the noise was just too distracting.  At 11:40pm I finally called the front desk and made a noise complaint.  They said they’d alert hotel security.  I was able to get to sleep around midnight only to be awakened again at 2:30am.  This time it was a crowd of people laughing and conversing in the hall.  Knocking on doors, opening &amp; closing doors.  This continued for over one hour.  I wanted to cry.  I was exhausted and needed a good rest for my meeting the next morning.  I finally got up at 3:50am and looked out my peek hole and saw hotel security right outside my door, telling a group of women to quiet down and go to their rooms.  By 4:00am it was quiet.  I tried to fall back to sleep but by 4:15am, the party was back in the hallway.  I ended up getting maybe 2.5 hours of sleep before a 9 hour meeting and a 2.5 hour drive home.  Not happy.When I checked out in the morning, the front desk offered an apology and told me it was a Sorority group who wouldn’t be welcomed back to this hotel.  I wasn’t given any sort of discount or accommodation and that did surprise me and is why I’m only offering 3 stars.  If the rude guests were removed from my experience, this review would be 5 stars.  Not the hotel’s fault, but they should have dealt with these guests more effectively and/or offered a discount or accommodation for my inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r562300148-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>562300148</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No WiFi </t>
+  </si>
+  <si>
+    <t>Do not stay here if you need WiFi for work. This was my second stay within a few months.  Last time I had no WiFi signal.  This time the signal kept dropping.  Last time I was told it would be fixed.  This time I was told I could move to a conference room or the lobby, upending everything to get a WiFi signal.  This is after time spent with tech support.  The hotel gave me extra points, but I have tons of points already.  All I want is WiFi - it’s supposedly a free benefit for being loyal.  Yet when it’s not available at all, is it a detriment to being loyal.  Otherwise, everything else was fine ex the wait for the front desk that always seems to take forever.  Check in for others shouldn’t take five minutes per person.  MoreShow less</t>
+  </si>
+  <si>
+    <t>HiltonPasadena, General Manager at Hilton Pasadena, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Do not stay here if you need WiFi for work. This was my second stay within a few months.  Last time I had no WiFi signal.  This time the signal kept dropping.  Last time I was told it would be fixed.  This time I was told I could move to a conference room or the lobby, upending everything to get a WiFi signal.  This is after time spent with tech support.  The hotel gave me extra points, but I have tons of points already.  All I want is WiFi - it’s supposedly a free benefit for being loyal.  Yet when it’s not available at all, is it a detriment to being loyal.  Otherwise, everything else was fine ex the wait for the front desk that always seems to take forever.  Check in for others shouldn’t take five minutes per person.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r561977814-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>561977814</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Great weekend to follow up on Valentines Day.</t>
+  </si>
+  <si>
+    <t>The location was perfect for dining and shopping.  It was also easy driving distance to Descanso Gardens, Norton Simon Museum, Huntington Gardens and the LA Arboretum, all of which we love.  It doesn't hurt that it was a fifteen minute drive from our grandchildren!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r561138532-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>561138532</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was suppose to get a Mountain View room but got screwed </t>
+  </si>
+  <si>
+    <t>Let me start by saying, I reserved a deluxe room with double bed with a Mountain View for my sister as a birthday gift...And when I talked to the agent, I made sure I get a Mountain View room even if I had to pay extra that’s why I chose deluxe room instead of standard, and I was told by the reservation agent yes it has a Mountain View, cause I want my sister to enjoy her 1 night stay, unfortunately she got there and they gave the first room that was available cause they were over sold and they didn’t have a Mountain View, and with all that they try to blame me and accuse of misinforming them, and they said our deluxe don’t come with moutain View even tho online it said some of our room has a Mountain View and when I talked to the agent I made sure it was moutain View, and I confirmed according to that, it’s not my fault if the Pasadena Hilton is over sold, that’s there problem, they have to honor there deals specially with a paying guest...and with all that the operating agent try to cheat me and tell me, our deluxe room don’t have moutain View and when I mentioned to him, a previous agent told your over sold and we gave your sister the first available room, then he try to fix the problem.. that’s disrespectful and lying...Let me start by saying, I reserved a deluxe room with double bed with a Mountain View for my sister as a birthday gift...And when I talked to the agent, I made sure I get a Mountain View room even if I had to pay extra that’s why I chose deluxe room instead of standard, and I was told by the reservation agent yes it has a Mountain View, cause I want my sister to enjoy her 1 night stay, unfortunately she got there and they gave the first room that was available cause they were over sold and they didn’t have a Mountain View, and with all that they try to blame me and accuse of misinforming them, and they said our deluxe don’t come with moutain View even tho online it said some of our room has a Mountain View and when I talked to the agent I made sure it was moutain View, and I confirmed according to that, it’s not my fault if the Pasadena Hilton is over sold, that’s there problem, they have to honor there deals specially with a paying guest...and with all that the operating agent try to cheat me and tell me, our deluxe room don’t have moutain View and when I mentioned to him, a previous agent told your over sold and we gave your sister the first available room, then he try to fix the problem.. that’s disrespectful and lying to a guest.... it’s unbelievable, I promised my sister a Mountain View room and once she got there, they put her in the first available room cause the Hilton was over sold and it’s not my fault, but I had to pay for it even tho I paid $300, $60 dollars more that a deluxe room and I was promise something I didn’t get for my sister birthday MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start by saying, I reserved a deluxe room with double bed with a Mountain View for my sister as a birthday gift...And when I talked to the agent, I made sure I get a Mountain View room even if I had to pay extra that’s why I chose deluxe room instead of standard, and I was told by the reservation agent yes it has a Mountain View, cause I want my sister to enjoy her 1 night stay, unfortunately she got there and they gave the first room that was available cause they were over sold and they didn’t have a Mountain View, and with all that they try to blame me and accuse of misinforming them, and they said our deluxe don’t come with moutain View even tho online it said some of our room has a Mountain View and when I talked to the agent I made sure it was moutain View, and I confirmed according to that, it’s not my fault if the Pasadena Hilton is over sold, that’s there problem, they have to honor there deals specially with a paying guest...and with all that the operating agent try to cheat me and tell me, our deluxe room don’t have moutain View and when I mentioned to him, a previous agent told your over sold and we gave your sister the first available room, then he try to fix the problem.. that’s disrespectful and lying...Let me start by saying, I reserved a deluxe room with double bed with a Mountain View for my sister as a birthday gift...And when I talked to the agent, I made sure I get a Mountain View room even if I had to pay extra that’s why I chose deluxe room instead of standard, and I was told by the reservation agent yes it has a Mountain View, cause I want my sister to enjoy her 1 night stay, unfortunately she got there and they gave the first room that was available cause they were over sold and they didn’t have a Mountain View, and with all that they try to blame me and accuse of misinforming them, and they said our deluxe don’t come with moutain View even tho online it said some of our room has a Mountain View and when I talked to the agent I made sure it was moutain View, and I confirmed according to that, it’s not my fault if the Pasadena Hilton is over sold, that’s there problem, they have to honor there deals specially with a paying guest...and with all that the operating agent try to cheat me and tell me, our deluxe room don’t have moutain View and when I mentioned to him, a previous agent told your over sold and we gave your sister the first available room, then he try to fix the problem.. that’s disrespectful and lying to a guest.... it’s unbelievable, I promised my sister a Mountain View room and once she got there, they put her in the first available room cause the Hilton was over sold and it’s not my fault, but I had to pay for it even tho I paid $300, $60 dollars more that a deluxe room and I was promise something I didn’t get for my sister birthday More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r557768721-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>557768721</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent A+ Customer Service / Hilton Pasadena / Gilbert Chavez</t>
+  </si>
+  <si>
+    <t>I recently booked a business stay at the Hilton Pasadena. I had an issue arise that was immediately taken care of by Gilbert Chavez, a hotel employee. He took care of all of my customer service needs with a smile and true professional manner! Gilbert Chavez is an asset to the Hilton brand!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r557656356-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>557656356</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Best in town</t>
+  </si>
+  <si>
+    <t>Patric and the desk staff are fantastic, the bar/restaurant staff are always accommodating. They go out of their way to make you feel like a valued customer. They are terrific ambassadors of the Hilton brand.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r557306131-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>557306131</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>A good solid hotel, but a remodeled with issues</t>
+  </si>
+  <si>
+    <t>This is the third time I have stayed at this Hilton, but the first since the recent remodeling.  What I like about this Hilton is that it is basic.  It offers and delivers core services very well, the staff is top notch, and that is consistent across the board.  And the location is great for walking, either to Colorado Avenue, or to The shopping on Lake Avenue, or to the Pasadena Playhouse.
+What I was less than tjrill with was the recent remodel to the rooms.  While I think the intention was to embrace the current trend towards lean, "boutique" hotel look, but it lookslike they bought the furniture at Target.  Specifically, the rooms fail when it comes to the desk, desk chair and something the call a "chaise" but in reality is more like a restaurant bankette.  Lets start with the chaise, which is armless, but has a tall back on two sides.  Because of configuration, the "chaise" is too narrow to recline on (unless your waist is under under 32"), and even then the high back makes reclining and  working uncomfortible and impracticable.  Using the chaise as a couch is also uncomfortible.  So the object becomes an elephant in the room, yes, its there, but it has no practical value, it has and offers no comfort.  
+Then there is the desk and chair, neither is meant to work together.  The chair is beyond inadequate.  It is an example...This is the third time I have stayed at this Hilton, but the first since the recent remodeling.  What I like about this Hilton is that it is basic.  It offers and delivers core services very well, the staff is top notch, and that is consistent across the board.  And the location is great for walking, either to Colorado Avenue, or to The shopping on Lake Avenue, or to the Pasadena Playhouse.What I was less than tjrill with was the recent remodel to the rooms.  While I think the intention was to embrace the current trend towards lean, "boutique" hotel look, but it lookslike they bought the furniture at Target.  Specifically, the rooms fail when it comes to the desk, desk chair and something the call a "chaise" but in reality is more like a restaurant bankette.  Lets start with the chaise, which is armless, but has a tall back on two sides.  Because of configuration, the "chaise" is too narrow to recline on (unless your waist is under under 32"), and even then the high back makes reclining and  working uncomfortible and impracticable.  Using the chaise as a couch is also uncomfortible.  So the object becomes an elephant in the room, yes, its there, but it has no practical value, it has and offers no comfort.  Then there is the desk and chair, neither is meant to work together.  The chair is beyond inadequate.  It is an example of what happens when a design is chosen without consideration to what its purpose is, but how it looks.  After 12 hours on planes and airports, what a road warrior needs and wants is place to sit that offers comfort.  This chair design is better suited to an occasional chair, that only gets used when everything else is taken.  There are no arms, it is not adjustable in any way, shape, or form.  And it is the wrong height for the tiny desk top.  This is a design failure at its best, and its unfair to guests.  It shows contempt for your need of having a functional work space.The other unforgivable failing the guest rooms is appalling lack of light.  The entrance and bathroom are bright.  But the bed lamps are dim, and finding the switch is difficult (its a toggle under the fixture) and they offer these strange, impractical *bright* spotlights tha are usful if you are trying to read in bed, becuase the bedside lamps are so dim.  But the floor lamp is the worst offender.  Ugly and cheap looking, the bulb put out a dim glow that only the wrong bulb for the wrong purpose can provide.  A lamp this big should surly provide light equal to its status.  Instead you get something akin to just the lowest wattage working on a 50-200-250 three way bulb.  The desk light also has no business being on anything but a dorm desk.  This led bulb is too bright for the lightly frosted glass shade.  Its like the light that villians shine in the faces of victims during an interrogation. It hurts your eyes and makes using a laptop difficult.  And remember the "chaise"?  It sits in the dark corner at night with no light at all.  If you are reading a tablet, its great.  If you are using a real book, luddite, you are SOL.  Rooms should welcome travelers, not alienate them.The restaurant is a striped down affair, with a limited menu, but the food is good and basic and there is enough served with each plate.  And the breakfast staff remembered me, and seemed genuinely concerned with comfort and needs. My only complaint are the buffet scrambled eggs which were inedible, cold and gummy.  One the flipside, the bacon was everything you dream about.So why did the hotel get four stars?  The staff, and only the staff.  These people are professionals who get hospitality.  When I said the desk chair was impractical, the desk clerk found me a unused office chair that was adjustable.  The valet always had my car ready when I called just as I was leaving my room.  And the wait staff in restaurant were wonderful.  So I would stay there again, but management has to address the room lighting issues and desk chair issue.  To expect business travelers to tolerate these two failures is to ignore the purpose of why guest rooms need decent desks and chairs that are ergonomically matched.  Not to address this issue is to subject guests to mistakes made by a designer who values form over function.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the third time I have stayed at this Hilton, but the first since the recent remodeling.  What I like about this Hilton is that it is basic.  It offers and delivers core services very well, the staff is top notch, and that is consistent across the board.  And the location is great for walking, either to Colorado Avenue, or to The shopping on Lake Avenue, or to the Pasadena Playhouse.
+What I was less than tjrill with was the recent remodel to the rooms.  While I think the intention was to embrace the current trend towards lean, "boutique" hotel look, but it lookslike they bought the furniture at Target.  Specifically, the rooms fail when it comes to the desk, desk chair and something the call a "chaise" but in reality is more like a restaurant bankette.  Lets start with the chaise, which is armless, but has a tall back on two sides.  Because of configuration, the "chaise" is too narrow to recline on (unless your waist is under under 32"), and even then the high back makes reclining and  working uncomfortible and impracticable.  Using the chaise as a couch is also uncomfortible.  So the object becomes an elephant in the room, yes, its there, but it has no practical value, it has and offers no comfort.  
+Then there is the desk and chair, neither is meant to work together.  The chair is beyond inadequate.  It is an example...This is the third time I have stayed at this Hilton, but the first since the recent remodeling.  What I like about this Hilton is that it is basic.  It offers and delivers core services very well, the staff is top notch, and that is consistent across the board.  And the location is great for walking, either to Colorado Avenue, or to The shopping on Lake Avenue, or to the Pasadena Playhouse.What I was less than tjrill with was the recent remodel to the rooms.  While I think the intention was to embrace the current trend towards lean, "boutique" hotel look, but it lookslike they bought the furniture at Target.  Specifically, the rooms fail when it comes to the desk, desk chair and something the call a "chaise" but in reality is more like a restaurant bankette.  Lets start with the chaise, which is armless, but has a tall back on two sides.  Because of configuration, the "chaise" is too narrow to recline on (unless your waist is under under 32"), and even then the high back makes reclining and  working uncomfortible and impracticable.  Using the chaise as a couch is also uncomfortible.  So the object becomes an elephant in the room, yes, its there, but it has no practical value, it has and offers no comfort.  Then there is the desk and chair, neither is meant to work together.  The chair is beyond inadequate.  It is an example of what happens when a design is chosen without consideration to what its purpose is, but how it looks.  After 12 hours on planes and airports, what a road warrior needs and wants is place to sit that offers comfort.  This chair design is better suited to an occasional chair, that only gets used when everything else is taken.  There are no arms, it is not adjustable in any way, shape, or form.  And it is the wrong height for the tiny desk top.  This is a design failure at its best, and its unfair to guests.  It shows contempt for your need of having a functional work space.The other unforgivable failing the guest rooms is appalling lack of light.  The entrance and bathroom are bright.  But the bed lamps are dim, and finding the switch is difficult (its a toggle under the fixture) and they offer these strange, impractical *bright* spotlights tha are usful if you are trying to read in bed, becuase the bedside lamps are so dim.  But the floor lamp is the worst offender.  Ugly and cheap looking, the bulb put out a dim glow that only the wrong bulb for the wrong purpose can provide.  A lamp this big should surly provide light equal to its status.  Instead you get something akin to just the lowest wattage working on a 50-200-250 three way bulb.  The desk light also has no business being on anything but a dorm desk.  This led bulb is too bright for the lightly frosted glass shade.  Its like the light that villians shine in the faces of victims during an interrogation. It hurts your eyes and makes using a laptop difficult.  And remember the "chaise"?  It sits in the dark corner at night with no light at all.  If you are reading a tablet, its great.  If you are using a real book, luddite, you are SOL.  Rooms should welcome travelers, not alienate them.The restaurant is a striped down affair, with a limited menu, but the food is good and basic and there is enough served with each plate.  And the breakfast staff remembered me, and seemed genuinely concerned with comfort and needs. My only complaint are the buffet scrambled eggs which were inedible, cold and gummy.  One the flipside, the bacon was everything you dream about.So why did the hotel get four stars?  The staff, and only the staff.  These people are professionals who get hospitality.  When I said the desk chair was impractical, the desk clerk found me a unused office chair that was adjustable.  The valet always had my car ready when I called just as I was leaving my room.  And the wait staff in restaurant were wonderful.  So I would stay there again, but management has to address the room lighting issues and desk chair issue.  To expect business travelers to tolerate these two failures is to ignore the purpose of why guest rooms need decent desks and chairs that are ergonomically matched.  Not to address this issue is to subject guests to mistakes made by a designer who values form over function.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r555682104-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>555682104</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This older place has just had a facelift and is now scandy modern in decor.  Nice colors, new furniture, clean.Rooms still small, thin walls, poor bathroom ventilation, garage is a long walk away no elevator, so need to drop bags at hotel front entrance.Staff is competent.  Service fast.Three former restaurants just combined into one:  "The Corner".  Very casual, almost Denny's with nicer furniture.  Has not been discovered for dinner at all, so the bartender was the most visible employee, later joined by one server.  Breakfast was far busier and staff were added.Food is OK--breakfast very good, with big menu.  Dinner OK, much smaller menu.Charcuterie excellent, meat dishes needed some work.  Nice salads.MoreShow less</t>
+  </si>
+  <si>
+    <t>This older place has just had a facelift and is now scandy modern in decor.  Nice colors, new furniture, clean.Rooms still small, thin walls, poor bathroom ventilation, garage is a long walk away no elevator, so need to drop bags at hotel front entrance.Staff is competent.  Service fast.Three former restaurants just combined into one:  "The Corner".  Very casual, almost Denny's with nicer furniture.  Has not been discovered for dinner at all, so the bartender was the most visible employee, later joined by one server.  Breakfast was far busier and staff were added.Food is OK--breakfast very good, with big menu.  Dinner OK, much smaller menu.Charcuterie excellent, meat dishes needed some work.  Nice salads.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r555045635-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>555045635</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel in Great Location in Pasadena</t>
+  </si>
+  <si>
+    <t>My husband and I drive an electric car and were quite pleased to learn this hotel has electric car chargers!  Very modern and clean hotel.  Our nicely decorated room appeared to be recently renovated and had an awesome walk-in shower.   This hotel has a restaurant on-site which was quite convenient.  Not only was the food excellent, the customer service was fabulous.  All staff encountered were pleasant and quite helpful.  This hotel is highly recommended.  E look forward to our return!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r554650560-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>554650560</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Good location and friendly staff, can walk to Old Pasadena and they have a free shuttle, would definitely recommend, the renovation they just  finished was nice, rooms are standard, plenty of charging stations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551870529-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551870529</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>A Rose for the Rose Parade</t>
+  </si>
+  <si>
+    <t>Great consistency in staff and accommodations. Well maintained and with an excellent location. Very helpful with an excellent breakfast buffet. Nice bar and service with limited but good menu. Excellent housekeeping.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551634349-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551634349</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Love the Renovation</t>
+  </si>
+  <si>
+    <t>This is my fifth stay and was really impressed by the renovations in the hotel. The staff are the best and remember you from year to year. The breakfast buffet is excellent and the bar and dining area is terrific.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551631551-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551631551</t>
+  </si>
+  <si>
+    <t>Very nice hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The recent renovations are spot on. Very nice bathroom.  Comfortable pillows - a big plus. Little things like having light switches easily accessible from the bed and having outlets where you can get to them and even USB jacks. You’re clearly thinking about the modern traveler. Friendly and efficient staff. Good job. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551176423-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551176423</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Family Friendly Lovely Hotel</t>
+  </si>
+  <si>
+    <t>My family loves staying at Hilton Pasadena. The staff are very welcoming, courteous and cheerful. The location is great since it is close to all the restaurants, bars, shopping and all the fun places in Pasadena. They also have a restaurant which serves fabulous food and cocktails and the atmosphere is lovely. I definitely recommend this hotel. A+++</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550993511-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>550993511</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Hopefully improvement will follow end of renovations</t>
+  </si>
+  <si>
+    <t>The newly renovated rooms are lovely and quiet  and the hotel shuttle is great. When I arrived to check in   for a  3 day meeting several months ago there was a waterfall originating  from the second floor  in the lobby and I had to be escorted to the elevators by a guy with an umbrella while personnel tried to vacuum up the water in the lobby. Perhaps this explained why I was never notified of the flowers waiting for me at the front desk. The following  morning  I spoke with the person who sent them, who  had specifically called the hotel before sending the flowers to be sure I would get them the previous day, and who  asked me how I liked them. I related that I didn't know anything about them. I  then proceeded to the front desk to inquire and lo and behold the flowers were behind the desk in the  check in area. I asked the personnel on duty if it had occurred to them that I might have liked the flowers in my room and why hadn't they either notified me that they were waiting for me or sent them up to the room. The young ladies simply shrugged their shoulders and did not even  offer an apology. The attorney who sent them to me later pursued the matter with the manager who offered a refund for the price of the floral arrangement but really there...The newly renovated rooms are lovely and quiet  and the hotel shuttle is great. When I arrived to check in   for a  3 day meeting several months ago there was a waterfall originating  from the second floor  in the lobby and I had to be escorted to the elevators by a guy with an umbrella while personnel tried to vacuum up the water in the lobby. Perhaps this explained why I was never notified of the flowers waiting for me at the front desk. The following  morning  I spoke with the person who sent them, who  had specifically called the hotel before sending the flowers to be sure I would get them the previous day, and who  asked me how I liked them. I related that I didn't know anything about them. I  then proceeded to the front desk to inquire and lo and behold the flowers were behind the desk in the  check in area. I asked the personnel on duty if it had occurred to them that I might have liked the flowers in my room and why hadn't they either notified me that they were waiting for me or sent them up to the room. The young ladies simply shrugged their shoulders and did not even  offer an apology. The attorney who sent them to me later pursued the matter with the manager who offered a refund for the price of the floral arrangement but really there is no excuse for this. While I was there the restaurant was closed as were some of the bathrooms in common areas on the first floor. The only public  place to congregate was the lounge where in keeping with the recent California trend toward uniformity in all speech and thought all TV monitors were continually broadcasting CNN and only CNN. Too bad if you wanted to see something else.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The newly renovated rooms are lovely and quiet  and the hotel shuttle is great. When I arrived to check in   for a  3 day meeting several months ago there was a waterfall originating  from the second floor  in the lobby and I had to be escorted to the elevators by a guy with an umbrella while personnel tried to vacuum up the water in the lobby. Perhaps this explained why I was never notified of the flowers waiting for me at the front desk. The following  morning  I spoke with the person who sent them, who  had specifically called the hotel before sending the flowers to be sure I would get them the previous day, and who  asked me how I liked them. I related that I didn't know anything about them. I  then proceeded to the front desk to inquire and lo and behold the flowers were behind the desk in the  check in area. I asked the personnel on duty if it had occurred to them that I might have liked the flowers in my room and why hadn't they either notified me that they were waiting for me or sent them up to the room. The young ladies simply shrugged their shoulders and did not even  offer an apology. The attorney who sent them to me later pursued the matter with the manager who offered a refund for the price of the floral arrangement but really there...The newly renovated rooms are lovely and quiet  and the hotel shuttle is great. When I arrived to check in   for a  3 day meeting several months ago there was a waterfall originating  from the second floor  in the lobby and I had to be escorted to the elevators by a guy with an umbrella while personnel tried to vacuum up the water in the lobby. Perhaps this explained why I was never notified of the flowers waiting for me at the front desk. The following  morning  I spoke with the person who sent them, who  had specifically called the hotel before sending the flowers to be sure I would get them the previous day, and who  asked me how I liked them. I related that I didn't know anything about them. I  then proceeded to the front desk to inquire and lo and behold the flowers were behind the desk in the  check in area. I asked the personnel on duty if it had occurred to them that I might have liked the flowers in my room and why hadn't they either notified me that they were waiting for me or sent them up to the room. The young ladies simply shrugged their shoulders and did not even  offer an apology. The attorney who sent them to me later pursued the matter with the manager who offered a refund for the price of the floral arrangement but really there is no excuse for this. While I was there the restaurant was closed as were some of the bathrooms in common areas on the first floor. The only public  place to congregate was the lounge where in keeping with the recent California trend toward uniformity in all speech and thought all TV monitors were continually broadcasting CNN and only CNN. Too bad if you wanted to see something else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550936775-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>550936775</t>
+  </si>
+  <si>
+    <t>Family Trip with Donate Life for the Rose Parade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful staff. All were so helpful and went out of there way to help us. The hotel is close to plenty of restaurants within walking distance, making it very well located. Rooms were clean and beds extremely comfortable. Would definitely return to this hotel in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550289855-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>550289855</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Hotel renovation &amp; dusty</t>
+  </si>
+  <si>
+    <t>This hotel is undergoing renovation &amp; the rooms were dusty. My husband who gets asthma attacks got asthma. The bathroom door didn’t close properly &amp; had a big squeaky noise. The hotel WiFi didn’t work at all. First they should finish the renovation before renting.MoreShow less</t>
+  </si>
+  <si>
+    <t>HiltonPasadena, General Manager at Hilton Pasadena, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is undergoing renovation &amp; the rooms were dusty. My husband who gets asthma attacks got asthma. The bathroom door didn’t close properly &amp; had a big squeaky noise. The hotel WiFi didn’t work at all. First they should finish the renovation before renting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550260745-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>550260745</t>
+  </si>
+  <si>
+    <t>Best Hotel in Pasadena</t>
+  </si>
+  <si>
+    <t>Great location, great staff, best accommodations, will be staying there again soon, easy check in and check out, wish we could have stayed longer, they add a lot of happiness to the great city of Pasadena</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550128109-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>550128109</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>great stay in pasadena</t>
+  </si>
+  <si>
+    <t>Fun Christmas layover with family.  The hotel location is excellent within walking distance of the great shops and restaurants of Pasadena 'Old Town."The room and service where excellent.  We will be backMoreShow less</t>
+  </si>
+  <si>
+    <t>Fun Christmas layover with family.  The hotel location is excellent within walking distance of the great shops and restaurants of Pasadena 'Old Town."The room and service where excellent.  We will be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r549885332-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>549885332</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Emergency accommodation Great</t>
+  </si>
+  <si>
+    <t>The plumbing backed up in our house full of Christmas relatives. I tried to call the hotel but could not understand the woman who worked in general reservations so we drove to the hotel and they gladly accommodated us in person.  How nice to feel cared for by a smiling front desk real person. The rooms were great and the service superb.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r549486073-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>549486073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient location, new renovation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location - walking distance or quick Uber to anything within Pasadena. Hotel was recently renovated so has that new smell feel. Staff is courteous, for the most part, but average. Cleanliness of room was decent for the first few nights but got worse by our last night. The cleaning crew left a clogged drain in our shower making it unappealing. It cleared up the next morning but unfortunately the shower was grimy from the residue. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r549420730-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>549420730</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>three day stay</t>
+  </si>
+  <si>
+    <t>An excellent experience, the staff is always what makes any institution operate well and the staff at this Hilton property were some of the finest I've ever met. Not being familiar with the area, and having misplaced my mapping device the hotel staff were ready able and very patient with my request for help in navigating the highway system.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r547985510-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>547985510</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Great service, excellent accommodations and food Staff is very attentive welcoming make you feel right at home. Rooms are upgraded very clean nice linens. restaurant has excellent service as well as great food. I highly recommend this establishment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r547426194-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>547426194</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Great Remodel, but missed Blueberries !</t>
+  </si>
+  <si>
+    <t>King sized room remodeled to feel larger - as was lovely new bath. Bar is now converted to very nice full time restaurant covering three meals. Great long term staff there, who we have known for ten plus years. Only difficult change  was lack of blueberries for breakfast, currently plentiful in stores locally. Those blueberries were always such a treat. Front desk staff was great as usual  and location is as always convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>HiltonPasadena, General Manager at Hilton Pasadena, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>King sized room remodeled to feel larger - as was lovely new bath. Bar is now converted to very nice full time restaurant covering three meals. Great long term staff there, who we have known for ten plus years. Only difficult change  was lack of blueberries for breakfast, currently plentiful in stores locally. Those blueberries were always such a treat. Front desk staff was great as usual  and location is as always convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r547294895-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>547294895</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Overall a Good Experience</t>
+  </si>
+  <si>
+    <t>The room was clean, comfortable and not very expensive. The hotel is undergoing a renovation, and our room showed why. Nothing major, just some little things. The clock radio was a problem - alarm setting. on military time, plug connectors for devices half worked. The coffeemaker overflowed if set to one cup. The closet doors were very loose at the hinges. OTHER than those things - Location, location, location. The free shuttle was a nice touch too, especially if exploring Old Towne Pasadena. Close to Hospital too!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean, comfortable and not very expensive. The hotel is undergoing a renovation, and our room showed why. Nothing major, just some little things. The clock radio was a problem - alarm setting. on military time, plug connectors for devices half worked. The coffeemaker overflowed if set to one cup. The closet doors were very loose at the hinges. OTHER than those things - Location, location, location. The free shuttle was a nice touch too, especially if exploring Old Towne Pasadena. Close to Hospital too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r544540395-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>544540395</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>A wonderfully informative and helpful staff. I had a problem with internet access which was swiftly resolved by helpful staff that t=stayed with the task at hand until it had been fully resolved.  Hilton staff is dedicated to swiftly resolve customer concerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>A wonderfully informative and helpful staff. I had a problem with internet access which was swiftly resolved by helpful staff that t=stayed with the task at hand until it had been fully resolved.  Hilton staff is dedicated to swiftly resolve customer concerns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r544453407-Hilton_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>544453407</t>
+  </si>
+  <si>
+    <t>Great staff &amp; place to stay</t>
+  </si>
+  <si>
+    <t>Cehcked in for one night on a business trip.  The staff were incredibly friendly and helpful.  The remodeling is almost complete and looks great.  Everything was clean &amp; comfortable.  I will definitely be back and would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cehcked in for one night on a business trip.  The staff were incredibly friendly and helpful.  The remodeling is almost complete and looks great.  Everything was clean &amp; comfortable.  I will definitely be back and would recommend this hotel.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1667,3672 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>126</v>
+      </c>
+      <c r="X16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>162</v>
+      </c>
+      <c r="X20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>162</v>
+      </c>
+      <c r="X21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>162</v>
+      </c>
+      <c r="X25" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>162</v>
+      </c>
+      <c r="X26" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>162</v>
+      </c>
+      <c r="X27" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>162</v>
+      </c>
+      <c r="X28" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>162</v>
+      </c>
+      <c r="X29" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>235</v>
+      </c>
+      <c r="X32" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>218</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>218</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>218</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>218</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>218</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>218</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>286</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
+        <v>291</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>218</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>286</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>302</v>
+      </c>
+      <c r="J45" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>306</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" t="s">
+        <v>303</v>
+      </c>
+      <c r="K46" t="s">
+        <v>310</v>
+      </c>
+      <c r="L46" t="s">
+        <v>311</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>286</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>313</v>
+      </c>
+      <c r="J47" t="s">
+        <v>314</v>
+      </c>
+      <c r="K47" t="s">
+        <v>315</v>
+      </c>
+      <c r="L47" t="s">
+        <v>316</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>286</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>317</v>
+      </c>
+      <c r="X47" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>314</v>
+      </c>
+      <c r="K48" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" t="s">
+        <v>323</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>286</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>325</v>
+      </c>
+      <c r="J49" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" t="s">
+        <v>327</v>
+      </c>
+      <c r="L49" t="s">
+        <v>328</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>286</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>317</v>
+      </c>
+      <c r="X49" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K50" t="s">
+        <v>333</v>
+      </c>
+      <c r="L50" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>286</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>336</v>
+      </c>
+      <c r="J51" t="s">
+        <v>332</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>338</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>286</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" t="s">
+        <v>343</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>286</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K53" t="s">
+        <v>257</v>
+      </c>
+      <c r="L53" t="s">
+        <v>347</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>286</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>348</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>349</v>
+      </c>
+      <c r="J54" t="s">
+        <v>350</v>
+      </c>
+      <c r="K54" t="s">
+        <v>351</v>
+      </c>
+      <c r="L54" t="s">
+        <v>352</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>286</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>353</v>
+      </c>
+      <c r="X54" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>286</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>353</v>
+      </c>
+      <c r="X55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
+      <c r="J56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L56" t="s">
+        <v>365</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>366</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>353</v>
+      </c>
+      <c r="X56" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9695</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>369</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s">
+        <v>370</v>
+      </c>
+      <c r="L57" t="s">
+        <v>371</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>366</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>353</v>
+      </c>
+      <c r="X57" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_351.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_351.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>MJC-DW</t>
   </si>
   <si>
     <t>07/03/2018</t>
@@ -193,6 +196,9 @@
 1027 has a wet bar area - which was a small microwave, small fridge and a...We stayed at the Hilton Pasadena from June 28th through to July 4th to attend a convention. Prior to arrival, Hilton staff via Twitter helped enormously to resolve room wishes and indeed everything we had hoped for (high floor, away from lift, a view if possible) had all been met. We were allocated room 1027.  Check in was swift and without problem. 1027 is a mountain view king delux room. It does have a view of the mountains to the left of the balcony. There is street noise but it’s a city centre hotel and that’s always to be expected. The balcony has two chairs and a table and is a nice place for morning coffee. The room was immaculate and I am quick to spot when it is not! Our room was serviced by Raina who was fast and efficient each day. She cheerfully greeted us despite having an enormous workload. Her work was exemplary. The bathroom is large with a shower over tub and a large vanity sink area. There is a very large well lit mirror and the lighting in the bathroom is excellent. There are a number of rails to the bathroom and tub area which are incredibly helpful for accessing the tub but are decorative as well. Great idea.  Good quality Crabtree and Evelyn toiletry products were provided daily. 1027 has a wet bar area - which was a small microwave, small fridge and a sink all on a  large counter top. There is a room safe in this area capable of storing a 17 inch laptop and other items. Coffee, tea and bottled still water was replenished daily. The bed was a large king size one with nice linens. I’d have loved more pillows but that’s me being greedy! If I had an area of improvement it would be that this rooms closet has no hanging area for full length items. Just suitable to store shirts, t shirt and trousers. So my dresses sadly puddled on the floor. Otherwise it was perfect. The lobby area of the hotel is large, airy, bright and imposing. There is easy access to the restaurant and bar and there was a good atmosphere in both areas. Snacks, including fruit, salads and sandwiches were available from a little ‘grocery closet’ near reception. Very handy when in a rush.  We did not have breakfast in the restaurant which was around $19 per person. Parking is expensive here at in excess of $20 a night. But it’s very clear on costs so patrons do have a choice. However there is very reasonable ($9 parking) within a moderate distance - we used Paseo Colorado which took 5-6 minutes max to walk to. It’s not an in / out rate - it’s a one off fee but it worked well for us. If you get the ticket validated in a linked shopping store - parking dropped to $6. The other hotel charge is the wifi at $10 a night.  Our convention rate meant this was free to us but it would have been odd to pay so much otherwise. The staff at the hotel were fabulous. The parking people were helpful when we need to  run in with shopping bags giving us a few minutes to get them to the room before we left their lot to park, the front counter staff were friendly and professional at all times and went out of their way to be helpful. I had an engineer visit to fix the fridge and even though very busy, he was warm and thoughtful in his attitude.  The free shuttle was really handy and Luiz was very flexible and helpful with information. The manager has developed a great team here who are a credit to the Hilton brand. I am looking forward to the rest of my stay and hope to return.  More</t>
   </si>
   <si>
+    <t>poblath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r591424294-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>vivihu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r591317175-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t xml:space="preserve">Overall very nice hotel. Street parking over night in the residential area with permit only. Otherwise you pay for parking in the hotel. The sliding glass barn style door to the bathroom may be a problem for some. At night, the light will filter through the glass and could unintended wake others up when you use the bathroom.  Rooms facing the streets are quiet as I could not hear any road noises </t>
   </si>
   <si>
+    <t>Pravil G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r590722494-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -247,6 +259,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>4H0llyw00d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r590013946-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -265,6 +280,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>ElenaLouisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r587156620-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -289,6 +307,9 @@
     <t>My room was gorgeous- large, very clean, and with a wonderful view. The staff was all so nice &amp; everything was so fast- my room service and extra toiletries  I requested each came in minutes. The free (slower) Wi-Fi was great for checking emails and browsing the Internet. More</t>
   </si>
   <si>
+    <t>matt m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r586802563-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -304,6 +325,9 @@
     <t xml:space="preserve">Went here for work trip, the parking structure should have better markings as far as where toy can park. The staff at breakfast were very helpful. Had to use Concur ro reserve the room. Didn't see the option to add breakfast, a bit pricey but I've  had worse </t>
   </si>
   <si>
+    <t>almcclain14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r586614677-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -319,6 +343,9 @@
     <t>Wonderful accommodations and numerous services available onsite. I could grab coffee at Starbuck’s and work out at the gym. The food service offered dining at the restaurant or room service. The location is close to other restaurants and the interstate so you can commute with ease.More</t>
   </si>
   <si>
+    <t>Lisa D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r585864979-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t>I enjoyed the stay at the Hilton.  It is about 5 blocks from the convention center and shopping and restaurant area.  You receive two water bottles a day included in your stay.  I thought this was a nice touch.  The rooms were clean and bed comfortable. More</t>
   </si>
   <si>
+    <t>kellylwilson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r583717352-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -355,6 +385,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>LFK1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r582300773-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -373,6 +406,9 @@
     <t>I wrote a previous review that was taken down since the property was renovated, although I stayed in a renovated room on my last visit, as well. Overall, I like this hotel. I find the staff friendly, I appreciate free water bottles (and truly don't understand why this isn't an industry standard,) the beds are comfortable and the bathrooms are almost great. The bathroom doors are the one big complaint I have, and they keep me from adding that 5th star. They slide on a track and do not close well, even worse as ours came off the track pushing the door further out and adding to the space on either side of the door - forget any kind of privacy. Further, if you are sharing the room and your roomie decides to use the bathroom in the middle of the night, the doors are translucent so the light floods the entire room. Honestly, this is the worst bathroom door design I've ever seen. I was with my husband, but if I were traveling with a friend, I would feel a complete lack of privacy as you can look right in on both sides and hear everything (do I need to elaborate any more???) That said, I want to compliment the breakfast buffet - it was beautifully presented, fresh and had lots of variety. I want to give a special shout out to our server, Tino. He made me and...I wrote a previous review that was taken down since the property was renovated, although I stayed in a renovated room on my last visit, as well. Overall, I like this hotel. I find the staff friendly, I appreciate free water bottles (and truly don't understand why this isn't an industry standard,) the beds are comfortable and the bathrooms are almost great. The bathroom doors are the one big complaint I have, and they keep me from adding that 5th star. They slide on a track and do not close well, even worse as ours came off the track pushing the door further out and adding to the space on either side of the door - forget any kind of privacy. Further, if you are sharing the room and your roomie decides to use the bathroom in the middle of the night, the doors are translucent so the light floods the entire room. Honestly, this is the worst bathroom door design I've ever seen. I was with my husband, but if I were traveling with a friend, I would feel a complete lack of privacy as you can look right in on both sides and hear everything (do I need to elaborate any more???) That said, I want to compliment the breakfast buffet - it was beautifully presented, fresh and had lots of variety. I want to give a special shout out to our server, Tino. He made me and my parents feel so welcome, paid attention to every detail and was as warm and delightful as anyone could be. I felt like he was serving us in his own home. There was another woman  working that morning (I'm sorry, I forget her name,) and she made a point to come and greet us at the end, also unbelievably lovely and gracious. So, I truly hate the bathroom doors, and I hope someone forwards this to the person who came up with the dumbest design imaginable and the corporate dingalings who approved it! Otherwise, this is a fine hotel with all-round pleasant staff and I highly recommend it.More</t>
   </si>
   <si>
+    <t>joyce370</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r581808660-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -388,6 +424,9 @@
     <t>Once again Randall Cervera, the Banquet Captain, and his team were on top of their game. We've grown accustomed to fast, efficient and always friendly service at the Hilton Pasadena. That is why we'll be back soon!!</t>
   </si>
   <si>
+    <t>KENNETH W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r577923819-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -415,6 +454,9 @@
     <t>This visit was my fourth year in a row staying at The Hilton Pasadena. I stayed for 4 nights with 4 nights in Las Vegas, followed by another 4 nights. The improvements that have been done are excellent. The reception desk has someone at hand each time I went to it. The rooms were clean and the bed very comfortable.I would like to give a special mention to Jennifer and Rhina @ the Corner. They looked after the bar with huge smiles on their faces and made me feel very welcome. I look forward to visiting again in 2019.More</t>
   </si>
   <si>
+    <t>Stephanie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r577853738-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -430,6 +472,9 @@
     <t>The remodel has made the rooms very nice. The hotel is overall quite and nicely done. The restaurant isn't bad either but there is a lot of stuff within walking distance. Last time I stayed here the remodel wasn't done and it wasn't nice but with the remodel done the rooms are nice now.More</t>
   </si>
   <si>
+    <t>tenaciousdaime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r577519966-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -448,6 +493,9 @@
     <t>From the moment I was greeted when I drove up, I felt welcome. Fresh air lobby and modern room also welcomed me. Anything I needed, the staff went above and beyond, including a local shuttle for me and my friend who were attending an event. My room was fresh and clean and the balcony was so nice to appreciate the very cool neighborhood of the hotel.More</t>
   </si>
   <si>
+    <t>jaysin24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r575933572-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -466,6 +514,9 @@
     <t>Front Office Manger Patrick Macalalag was superb in his not only his service but his gracious persona and attitude really made a huge impression on not only myself but my family who also stayed on the property. He made our stay so wonderful that the Hilton Pasadena will now be the main property we will stay at while in southern California as often as possible. Thank you for all of your help this past weekend Patrick! you are awesome! hope to see you again soon.Jason Cardoza &amp; FamilyMore</t>
   </si>
   <si>
+    <t>Byron R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r575729694-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -484,6 +535,9 @@
     <t>The hotel is in a nice central location. We were attending a wedding offsite. Staff was very friendly and helpful during our stay. The hotel is very modern in decor with a restaurant bar on the main floor. Our room seemed new or newly remodeled with comfortable bed, linen . large flatscreen TV, mini bar and coffee maker. The room and bathroom were spacious with nice towels and amenities. Parking was reasonably priced. There are no porters for assistance with luggage. Although we originally had a higher room floor reserved it was not yet ready so we were offered a lower room for our stay which was fine for our purpose but if view is important you would want to stay on a higher floor. More</t>
   </si>
   <si>
+    <t>MargoRoberts2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r575405265-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -499,6 +553,9 @@
     <t>We had a very nice stay at The Hilton Pasadena. There were four of us headed to a conference. Everything was in walking distance and we felt very safe walking to dinner in the evening and walking back. There were plenty of staff to meet any needs we may have had.</t>
   </si>
   <si>
+    <t>Amie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r572523072-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -523,6 +580,9 @@
     <t>Very nice stay, very friendly staff.  Showers/water is easily heard from above or next door, but not awful.  Ear plugs were provided as it is on a somewhat busy street - a nice touch I thought.  Room service was fast and yummy, and valet was excellent.  I would consider staying again if I am in the area.More</t>
   </si>
   <si>
+    <t>Dave G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r571991687-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
     <t>One night stay following a corporate event hosted at the hotel.  Nice modern rooms.  Really good pillows.  Small but updated bathrooms.Would have appreciated some lobby coffee in the morning.I am a light sleeper and could hear my neighbor snoring in the morning.There’s a nice shopping area nearby with some good looking restaurants.Pool is pretty small.Overall a modern place and pretty good.More</t>
   </si>
   <si>
+    <t>RJoslin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r571580074-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -562,6 +625,9 @@
     <t>This is a beautiful Hilton hotel with a recent renovation. We had a great room on the 8th floor with a view of the mountains. The only problem we had is with the HVAC system they have. The new wall thermostats have motion sensors on them. When they don't detect movement the temperature defaults to a preset setting. In this case the setting is 71*. My wife suffers from migraines which can be triggered at night by heat. We went to sleep with the temperature set at 65*. When it defaulted to 71* due to no movement my wife experienced a migraine. The hotel staff were so supportive. Jayne Betts the manager on duty did a great job identifying the problem. I want to thank her along with Gilbert who was my initial contact at the front desk and Dan and George who are the technicians who worked with us to get the room cooled down. With the room cooled down my wife was able to recover. The hotel staff were so accommodating. I could not of asked for more than everything they did. Ultimately everyone should be aware that thermostats in some hotels may have a motion sensor. They can override this feature if you request it.More</t>
   </si>
   <si>
+    <t>Edelan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r569877027-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -580,6 +646,9 @@
     <t>It was a quintessential Hilton. Clean and updated rooms, with a great front desk staff. Breakfast as a Diamond is included but other wise it’s a bit pricey. Workout room had enough treadmills for multiple users at once. I’d definitely return. More</t>
   </si>
   <si>
+    <t>Tashcoda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r569855874-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -595,6 +664,9 @@
     <t>Great location, convenient parking, beautiful hotel.  We were in a different hotel, but moved out due to excessive noise, and just now the quality we were hoping for the price.  I should have made reservations at Hilton from the beginning.  So quite, such great quality.  Walking distance to great restaurants, jogging in some quiet neighborhoods--and the sunrise near the mountains is gorgeous.  We plan to stay there again!!!More</t>
   </si>
   <si>
+    <t>BOB J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r568196529-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -613,6 +685,9 @@
     <t>The hotel was convenient and with in walking distance to the Convention center.  I felt safe and the walk was pleasant.  The staff were business like and pleasant and helpful.  Room was clean, bed was comfortable and quite.  Felt rested in the AM.More</t>
   </si>
   <si>
+    <t>Pjtait56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r566162762-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -629,6 +704,9 @@
   </si>
   <si>
     <t>Everything was up to my expectations. Good size room, everything worked properly  Plenty of convenient charge points. Wifi performed well, reliable. Complimentary drinking water was nice touch (but none on last day for some reason ). Recommended. More</t>
+  </si>
+  <si>
+    <t>bluevoter</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r566084200-Hilton_Pasadena-Pasadena_California.html</t>
@@ -654,6 +732,9 @@
 Also, the Hilton Pasadena charges $21 daily for self-parking and $23 for valet. If you are diligent, you can find free overnight parking on Oakland Street, a block...Every year, I go to a conference at the Pasadena Convention Center. The Hilton Pasadena is one of two chain hotels close to the Convention Center, and I finally decided to stay here, even though the rates are somewhat higher than the places I had previously stayed. The Hilton Pasadena is a pretty good place overall. Extra points for the excellent fitness center. My room was comfortable, and everything worked fine. I liked the "down-ish" pillows and the in-room refrigerator. You can also order a microwave, but I didn't. It's about 4 blocks to the LA Metro Del Mar stop, which is an easy and cheap way to get to downtown LA without driving the 110. It's also about 4 blocks from the hotel to the large Whole Foods Market on Arroyo Parkway, a block south of Del Mar. But there are some negatives. I strongly dislike the Hilton chain-wide policy of 2-tier Internet service. If you are a Hilton member and book directly with the hotel, you get free low tier Internet service. But if you want to stream video, then you have to pay for "premium" Internet service, formerly $5/day, but now $10/day. But it's still slower than what I got for free at a Best Western the week before.Also, the Hilton Pasadena charges $21 daily for self-parking and $23 for valet. If you are diligent, you can find free overnight parking on Oakland Street, a block east of the hotel. Alternatively, you can park a block away in one of the Paseo Colorado garages for $9/overnight, but without in/out privileges.Finally, don't even think about room service.  It's available until 11pm, but the surcharges include 23% for service, a $3.50 fee, and more, on top of the menu prices. I know that these charges are quite common for such hotels, but you have so many options within easy and safe walking distance that it would make no sense to use room service. Besides, you can choose from hundreds of restaurants that offer delivery service via web apps.Bottom line: if I had a company to pay my bill, then I would return here for next year's conference. If I'm paying out of my own pocket, then I will economize and look around the area for a well-rated place with a significantly lower room rate.More</t>
   </si>
   <si>
+    <t>Diane A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r565919936-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -683,6 +764,9 @@
 Parking:  The signage was confusing in the parking garage behind the hotel.  This is a shared parking garage with local businesses, and we had a difficult time understanding where to park, and many of the hotel spots were three...We stayed here the first week of February for an event at the Pasadena convention center.  We found this hotel to be conveniently located and a predictable Hilton.  We had great service at the front desk.  We were warmly welcomed as Hilton Honor members and given clear instructions about where to locate the parking garage behind the hotel for self parking.  Our room was a typical Hilton room, but had an updated look, and a fabulous view of the mountains.  The hotel was only a few blocks from the convention center, shopping, and restaurants.  It was very convenient for sure.Our only 2 complaints about the hotel:Bathroom cleanliness:  I found long black hair from the previous hotel guest in the bathtub during my shower.  This was incredibly gross to me.  The rest of the bathroom appeared clean, but the hair in the shower made me question how thoroughly the bathroom had been cleaned.Hotel Bar:  Horrible service at the hotel bar.  We sat at the bar both nights for a night cap, and had to hunt down the bartender both nights.  He seemed more interested in his cellphone, and counting tips than service the handful of people at the bar.Parking:  The signage was confusing in the parking garage behind the hotel.  This is a shared parking garage with local businesses, and we had a difficult time understanding where to park, and many of the hotel spots were three cars deep (meaning you would be blocked in if you parked all the way up by the wall).  All in all, a good stay in a convenient location in Pasadena.More</t>
   </si>
   <si>
+    <t>balthazarthompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r565178033-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -704,6 +788,9 @@
     <t>We can always count on Pasadena Hilton to deliver the great level of service we have come to expect from years of staying with them. Whether it's a family vacation in Kauai, family reunion or a weekend couples retreat. Our family knows they care about their guests comfort and make the extra effort of saying thank you for staying with them.More</t>
   </si>
   <si>
+    <t>NadaB52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r564981068-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -714,6 +801,9 @@
   </si>
   <si>
     <t>Staff excellent and helpful. Great location - easy to walk to many restaurants.Alicia housecleaner - excellent.  Hareg - dining room excellent.Slider doors in bathroom are loud and do not close for total privacy.</t>
+  </si>
+  <si>
+    <t>Stephanie G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r564678313-Hilton_Pasadena-Pasadena_California.html</t>
@@ -736,6 +826,9 @@
 Unfortunately, I was placed on the 14th floor amongst a loud group of people.  From 9:30pm-11:45pm, there was a man pacing the hallway outside my room having a very loud conversation on his cell phone.  I was trying to study for my business meeting the following morning and the noise was just too distracting.  At 11:40pm I finally called the front desk and made a noise complaint.  They said they’d alert hotel security.  I was able to get to sleep around midnight only to be awakened again at 2:30am.  This time it was a crowd of people laughing and conversing in the hall.  Knocking on doors, opening &amp; closing doors.  This continued for over one hour.  I wanted to cry.  I was exhausted and needed a good rest for my meeting the next morning.  I finally got up at 3:50am and looked out my peek hole and saw hotel security right outside my door, telling a group of women to quiet down and go to their rooms.  By 4:00am it was quiet.  I tried to fall back to sleep...I stayed one night at this property for a business trip.  The hotel is a lovely property.  Clean, updated decor and friendly &amp; attentive staff.  Everyone from the valet attendant to Rosie in Room Service to the waitstaff in the hotel restaurant were fantastic.  My room was nicely appointed and the restaurant food and room service cuisine were all top notch.Unfortunately, I was placed on the 14th floor amongst a loud group of people.  From 9:30pm-11:45pm, there was a man pacing the hallway outside my room having a very loud conversation on his cell phone.  I was trying to study for my business meeting the following morning and the noise was just too distracting.  At 11:40pm I finally called the front desk and made a noise complaint.  They said they’d alert hotel security.  I was able to get to sleep around midnight only to be awakened again at 2:30am.  This time it was a crowd of people laughing and conversing in the hall.  Knocking on doors, opening &amp; closing doors.  This continued for over one hour.  I wanted to cry.  I was exhausted and needed a good rest for my meeting the next morning.  I finally got up at 3:50am and looked out my peek hole and saw hotel security right outside my door, telling a group of women to quiet down and go to their rooms.  By 4:00am it was quiet.  I tried to fall back to sleep but by 4:15am, the party was back in the hallway.  I ended up getting maybe 2.5 hours of sleep before a 9 hour meeting and a 2.5 hour drive home.  Not happy.When I checked out in the morning, the front desk offered an apology and told me it was a Sorority group who wouldn’t be welcomed back to this hotel.  I wasn’t given any sort of discount or accommodation and that did surprise me and is why I’m only offering 3 stars.  If the rude guests were removed from my experience, this review would be 5 stars.  Not the hotel’s fault, but they should have dealt with these guests more effectively and/or offered a discount or accommodation for my inconvenience.More</t>
   </si>
   <si>
+    <t>CLEShawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r562300148-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -760,6 +853,9 @@
     <t>Do not stay here if you need WiFi for work. This was my second stay within a few months.  Last time I had no WiFi signal.  This time the signal kept dropping.  Last time I was told it would be fixed.  This time I was told I could move to a conference room or the lobby, upending everything to get a WiFi signal.  This is after time spent with tech support.  The hotel gave me extra points, but I have tons of points already.  All I want is WiFi - it’s supposedly a free benefit for being loyal.  Yet when it’s not available at all, is it a detriment to being loyal.  Otherwise, everything else was fine ex the wait for the front desk that always seems to take forever.  Check in for others shouldn’t take five minutes per person.  More</t>
   </si>
   <si>
+    <t>Glen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r561977814-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -775,6 +871,9 @@
     <t>The location was perfect for dining and shopping.  It was also easy driving distance to Descanso Gardens, Norton Simon Museum, Huntington Gardens and the LA Arboretum, all of which we love.  It doesn't hurt that it was a fifteen minute drive from our grandchildren!</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r561138532-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -793,6 +892,9 @@
     <t>Let me start by saying, I reserved a deluxe room with double bed with a Mountain View for my sister as a birthday gift...And when I talked to the agent, I made sure I get a Mountain View room even if I had to pay extra that’s why I chose deluxe room instead of standard, and I was told by the reservation agent yes it has a Mountain View, cause I want my sister to enjoy her 1 night stay, unfortunately she got there and they gave the first room that was available cause they were over sold and they didn’t have a Mountain View, and with all that they try to blame me and accuse of misinforming them, and they said our deluxe don’t come with moutain View even tho online it said some of our room has a Mountain View and when I talked to the agent I made sure it was moutain View, and I confirmed according to that, it’s not my fault if the Pasadena Hilton is over sold, that’s there problem, they have to honor there deals specially with a paying guest...and with all that the operating agent try to cheat me and tell me, our deluxe room don’t have moutain View and when I mentioned to him, a previous agent told your over sold and we gave your sister the first available room, then he try to fix the problem.. that’s disrespectful and lying...Let me start by saying, I reserved a deluxe room with double bed with a Mountain View for my sister as a birthday gift...And when I talked to the agent, I made sure I get a Mountain View room even if I had to pay extra that’s why I chose deluxe room instead of standard, and I was told by the reservation agent yes it has a Mountain View, cause I want my sister to enjoy her 1 night stay, unfortunately she got there and they gave the first room that was available cause they were over sold and they didn’t have a Mountain View, and with all that they try to blame me and accuse of misinforming them, and they said our deluxe don’t come with moutain View even tho online it said some of our room has a Mountain View and when I talked to the agent I made sure it was moutain View, and I confirmed according to that, it’s not my fault if the Pasadena Hilton is over sold, that’s there problem, they have to honor there deals specially with a paying guest...and with all that the operating agent try to cheat me and tell me, our deluxe room don’t have moutain View and when I mentioned to him, a previous agent told your over sold and we gave your sister the first available room, then he try to fix the problem.. that’s disrespectful and lying to a guest.... it’s unbelievable, I promised my sister a Mountain View room and once she got there, they put her in the first available room cause the Hilton was over sold and it’s not my fault, but I had to pay for it even tho I paid $300, $60 dollars more that a deluxe room and I was promise something I didn’t get for my sister birthday More</t>
   </si>
   <si>
+    <t>678windyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r557768721-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -808,6 +910,9 @@
     <t>I recently booked a business stay at the Hilton Pasadena. I had an issue arise that was immediately taken care of by Gilbert Chavez, a hotel employee. He took care of all of my customer service needs with a smile and true professional manner! Gilbert Chavez is an asset to the Hilton brand!</t>
   </si>
   <si>
+    <t>Mparker73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r557656356-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -821,6 +926,9 @@
   </si>
   <si>
     <t>Patric and the desk staff are fantastic, the bar/restaurant staff are always accommodating. They go out of their way to make you feel like a valued customer. They are terrific ambassadors of the Hilton brand.</t>
+  </si>
+  <si>
+    <t>Studebaker62</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r557306131-Hilton_Pasadena-Pasadena_California.html</t>
@@ -845,6 +953,9 @@
 Then there is the desk and chair, neither is meant to work together.  The chair is beyond inadequate.  It is an example...This is the third time I have stayed at this Hilton, but the first since the recent remodeling.  What I like about this Hilton is that it is basic.  It offers and delivers core services very well, the staff is top notch, and that is consistent across the board.  And the location is great for walking, either to Colorado Avenue, or to The shopping on Lake Avenue, or to the Pasadena Playhouse.What I was less than tjrill with was the recent remodel to the rooms.  While I think the intention was to embrace the current trend towards lean, "boutique" hotel look, but it lookslike they bought the furniture at Target.  Specifically, the rooms fail when it comes to the desk, desk chair and something the call a "chaise" but in reality is more like a restaurant bankette.  Lets start with the chaise, which is armless, but has a tall back on two sides.  Because of configuration, the "chaise" is too narrow to recline on (unless your waist is under under 32"), and even then the high back makes reclining and  working uncomfortible and impracticable.  Using the chaise as a couch is also uncomfortible.  So the object becomes an elephant in the room, yes, its there, but it has no practical value, it has and offers no comfort.  Then there is the desk and chair, neither is meant to work together.  The chair is beyond inadequate.  It is an example of what happens when a design is chosen without consideration to what its purpose is, but how it looks.  After 12 hours on planes and airports, what a road warrior needs and wants is place to sit that offers comfort.  This chair design is better suited to an occasional chair, that only gets used when everything else is taken.  There are no arms, it is not adjustable in any way, shape, or form.  And it is the wrong height for the tiny desk top.  This is a design failure at its best, and its unfair to guests.  It shows contempt for your need of having a functional work space.The other unforgivable failing the guest rooms is appalling lack of light.  The entrance and bathroom are bright.  But the bed lamps are dim, and finding the switch is difficult (its a toggle under the fixture) and they offer these strange, impractical *bright* spotlights tha are usful if you are trying to read in bed, becuase the bedside lamps are so dim.  But the floor lamp is the worst offender.  Ugly and cheap looking, the bulb put out a dim glow that only the wrong bulb for the wrong purpose can provide.  A lamp this big should surly provide light equal to its status.  Instead you get something akin to just the lowest wattage working on a 50-200-250 three way bulb.  The desk light also has no business being on anything but a dorm desk.  This led bulb is too bright for the lightly frosted glass shade.  Its like the light that villians shine in the faces of victims during an interrogation. It hurts your eyes and makes using a laptop difficult.  And remember the "chaise"?  It sits in the dark corner at night with no light at all.  If you are reading a tablet, its great.  If you are using a real book, luddite, you are SOL.  Rooms should welcome travelers, not alienate them.The restaurant is a striped down affair, with a limited menu, but the food is good and basic and there is enough served with each plate.  And the breakfast staff remembered me, and seemed genuinely concerned with comfort and needs. My only complaint are the buffet scrambled eggs which were inedible, cold and gummy.  One the flipside, the bacon was everything you dream about.So why did the hotel get four stars?  The staff, and only the staff.  These people are professionals who get hospitality.  When I said the desk chair was impractical, the desk clerk found me a unused office chair that was adjustable.  The valet always had my car ready when I called just as I was leaving my room.  And the wait staff in restaurant were wonderful.  So I would stay there again, but management has to address the room lighting issues and desk chair issue.  To expect business travelers to tolerate these two failures is to ignore the purpose of why guest rooms need decent desks and chairs that are ergonomically matched.  Not to address this issue is to subject guests to mistakes made by a designer who values form over function.More</t>
   </si>
   <si>
+    <t>harold b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r555682104-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -863,6 +974,9 @@
     <t>This older place has just had a facelift and is now scandy modern in decor.  Nice colors, new furniture, clean.Rooms still small, thin walls, poor bathroom ventilation, garage is a long walk away no elevator, so need to drop bags at hotel front entrance.Staff is competent.  Service fast.Three former restaurants just combined into one:  "The Corner".  Very casual, almost Denny's with nicer furniture.  Has not been discovered for dinner at all, so the bartender was the most visible employee, later joined by one server.  Breakfast was far busier and staff were added.Food is OK--breakfast very good, with big menu.  Dinner OK, much smaller menu.Charcuterie excellent, meat dishes needed some work.  Nice salads.More</t>
   </si>
   <si>
+    <t>Myrti F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r555045635-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -878,6 +992,9 @@
     <t>My husband and I drive an electric car and were quite pleased to learn this hotel has electric car chargers!  Very modern and clean hotel.  Our nicely decorated room appeared to be recently renovated and had an awesome walk-in shower.   This hotel has a restaurant on-site which was quite convenient.  Not only was the food excellent, the customer service was fabulous.  All staff encountered were pleasant and quite helpful.  This hotel is highly recommended.  E look forward to our return!</t>
   </si>
   <si>
+    <t>D7273KHchristopherr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r554650560-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -893,6 +1010,9 @@
     <t>Good location and friendly staff, can walk to Old Pasadena and they have a free shuttle, would definitely recommend, the renovation they just  finished was nice, rooms are standard, plenty of charging stations.</t>
   </si>
   <si>
+    <t>Blues2cup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551870529-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -911,6 +1031,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Jo R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551634349-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -926,6 +1049,9 @@
     <t>This is my fifth stay and was really impressed by the renovations in the hotel. The staff are the best and remember you from year to year. The breakfast buffet is excellent and the bar and dining area is terrific.</t>
   </si>
   <si>
+    <t>johnsJ8453UL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551631551-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -938,6 +1064,9 @@
     <t xml:space="preserve">The recent renovations are spot on. Very nice bathroom.  Comfortable pillows - a big plus. Little things like having light switches easily accessible from the bed and having outlets where you can get to them and even USB jacks. You’re clearly thinking about the modern traveler. Friendly and efficient staff. Good job. </t>
   </si>
   <si>
+    <t>Jocelyn11113</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r551176423-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -953,6 +1082,9 @@
     <t>My family loves staying at Hilton Pasadena. The staff are very welcoming, courteous and cheerful. The location is great since it is close to all the restaurants, bars, shopping and all the fun places in Pasadena. They also have a restaurant which serves fabulous food and cocktails and the atmosphere is lovely. I definitely recommend this hotel. A+++</t>
   </si>
   <si>
+    <t>chr_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550993511-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -974,6 +1106,9 @@
     <t>The newly renovated rooms are lovely and quiet  and the hotel shuttle is great. When I arrived to check in   for a  3 day meeting several months ago there was a waterfall originating  from the second floor  in the lobby and I had to be escorted to the elevators by a guy with an umbrella while personnel tried to vacuum up the water in the lobby. Perhaps this explained why I was never notified of the flowers waiting for me at the front desk. The following  morning  I spoke with the person who sent them, who  had specifically called the hotel before sending the flowers to be sure I would get them the previous day, and who  asked me how I liked them. I related that I didn't know anything about them. I  then proceeded to the front desk to inquire and lo and behold the flowers were behind the desk in the  check in area. I asked the personnel on duty if it had occurred to them that I might have liked the flowers in my room and why hadn't they either notified me that they were waiting for me or sent them up to the room. The young ladies simply shrugged their shoulders and did not even  offer an apology. The attorney who sent them to me later pursued the matter with the manager who offered a refund for the price of the floral arrangement but really there...The newly renovated rooms are lovely and quiet  and the hotel shuttle is great. When I arrived to check in   for a  3 day meeting several months ago there was a waterfall originating  from the second floor  in the lobby and I had to be escorted to the elevators by a guy with an umbrella while personnel tried to vacuum up the water in the lobby. Perhaps this explained why I was never notified of the flowers waiting for me at the front desk. The following  morning  I spoke with the person who sent them, who  had specifically called the hotel before sending the flowers to be sure I would get them the previous day, and who  asked me how I liked them. I related that I didn't know anything about them. I  then proceeded to the front desk to inquire and lo and behold the flowers were behind the desk in the  check in area. I asked the personnel on duty if it had occurred to them that I might have liked the flowers in my room and why hadn't they either notified me that they were waiting for me or sent them up to the room. The young ladies simply shrugged their shoulders and did not even  offer an apology. The attorney who sent them to me later pursued the matter with the manager who offered a refund for the price of the floral arrangement but really there is no excuse for this. While I was there the restaurant was closed as were some of the bathrooms in common areas on the first floor. The only public  place to congregate was the lounge where in keeping with the recent California trend toward uniformity in all speech and thought all TV monitors were continually broadcasting CNN and only CNN. Too bad if you wanted to see something else.More</t>
   </si>
   <si>
+    <t>tbennetts0626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550936775-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -986,6 +1121,9 @@
     <t xml:space="preserve">Wonderful staff. All were so helpful and went out of there way to help us. The hotel is close to plenty of restaurants within walking distance, making it very well located. Rooms were clean and beds extremely comfortable. Would definitely return to this hotel in the future. </t>
   </si>
   <si>
+    <t>Naomi V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550289855-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1010,6 +1148,9 @@
     <t>This hotel is undergoing renovation &amp; the rooms were dusty. My husband who gets asthma attacks got asthma. The bathroom door didn’t close properly &amp; had a big squeaky noise. The hotel WiFi didn’t work at all. First they should finish the renovation before renting.More</t>
   </si>
   <si>
+    <t>Russell D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550260745-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1022,6 +1163,9 @@
     <t>Great location, great staff, best accommodations, will be staying there again soon, easy check in and check out, wish we could have stayed longer, they add a lot of happiness to the great city of Pasadena</t>
   </si>
   <si>
+    <t>EarlCalder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r550128109-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1040,6 +1184,9 @@
     <t>Fun Christmas layover with family.  The hotel location is excellent within walking distance of the great shops and restaurants of Pasadena 'Old Town."The room and service where excellent.  We will be backMore</t>
   </si>
   <si>
+    <t>kittief2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r549885332-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1055,6 +1202,9 @@
     <t>The plumbing backed up in our house full of Christmas relatives. I tried to call the hotel but could not understand the woman who worked in general reservations so we drove to the hotel and they gladly accommodated us in person.  How nice to feel cared for by a smiling front desk real person. The rooms were great and the service superb.</t>
   </si>
   <si>
+    <t>citymom_NY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r549486073-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1067,6 +1217,9 @@
     <t xml:space="preserve">Great location - walking distance or quick Uber to anything within Pasadena. Hotel was recently renovated so has that new smell feel. Staff is courteous, for the most part, but average. Cleanliness of room was decent for the first few nights but got worse by our last night. The cleaning crew left a clogged drain in our shower making it unappealing. It cleared up the next morning but unfortunately the shower was grimy from the residue. </t>
   </si>
   <si>
+    <t>O2308QMstevenh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r549420730-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1082,6 +1235,9 @@
     <t>An excellent experience, the staff is always what makes any institution operate well and the staff at this Hilton property were some of the finest I've ever met. Not being familiar with the area, and having misplaced my mapping device the hotel staff were ready able and very patient with my request for help in navigating the highway system.</t>
   </si>
   <si>
+    <t>danieleB6027FP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r547985510-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1094,6 +1250,9 @@
     <t>Great service, excellent accommodations and food Staff is very attentive welcoming make you feel right at home. Rooms are upgraded very clean nice linens. restaurant has excellent service as well as great food. I highly recommend this establishment.</t>
   </si>
   <si>
+    <t>Joel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r547426194-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1118,6 +1277,9 @@
     <t>King sized room remodeled to feel larger - as was lovely new bath. Bar is now converted to very nice full time restaurant covering three meals. Great long term staff there, who we have known for ten plus years. Only difficult change  was lack of blueberries for breakfast, currently plentiful in stores locally. Those blueberries were always such a treat. Front desk staff was great as usual  and location is as always convenient. More</t>
   </si>
   <si>
+    <t>Douglas J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r547294895-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1136,6 +1298,9 @@
     <t>The room was clean, comfortable and not very expensive. The hotel is undergoing a renovation, and our room showed why. Nothing major, just some little things. The clock radio was a problem - alarm setting. on military time, plug connectors for devices half worked. The coffeemaker overflowed if set to one cup. The closet doors were very loose at the hinges. OTHER than those things - Location, location, location. The free shuttle was a nice touch too, especially if exploring Old Towne Pasadena. Close to Hospital too!More</t>
   </si>
   <si>
+    <t>358mitchells</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r544540395-Hilton_Pasadena-Pasadena_California.html</t>
   </si>
   <si>
@@ -1152,6 +1317,9 @@
   </si>
   <si>
     <t>A wonderfully informative and helpful staff. I had a problem with internet access which was swiftly resolved by helpful staff that t=stayed with the task at hand until it had been fully resolved.  Hilton staff is dedicated to swiftly resolve customer concerns.More</t>
+  </si>
+  <si>
+    <t>Steven B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79212-r544453407-Hilton_Pasadena-Pasadena_California.html</t>
@@ -1671,43 +1839,47 @@
       <c r="A2" t="n">
         <v>9695</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>189945</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1721,50 +1893,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>9695</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>189946</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1788,50 +1964,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>9695</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>189947</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1845,50 +2025,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>9695</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>189948</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1912,50 +2096,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>9695</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>189949</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1979,50 +2167,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>9695</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>189950</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2034,56 +2226,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>9695</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>189951</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2107,50 +2303,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9695</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>189952</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2172,56 +2372,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9695</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>12677</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2243,56 +2447,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9695</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>189953</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2316,50 +2524,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9695</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>189954</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2377,50 +2589,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>9695</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>133515</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
-      </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2438,50 +2654,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>9695</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>189955</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2497,56 +2717,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>9695</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>6148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2564,56 +2788,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>9695</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>189956</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>125</v>
-      </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2635,56 +2863,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>9695</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>189957</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2706,56 +2938,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X17" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>9695</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>89961</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2769,50 +3005,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>9695</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>189958</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2836,50 +3076,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>9695</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>61513</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2895,56 +3139,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>9695</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>7292</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2956,56 +3204,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>9695</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>189959</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3023,56 +3275,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X22" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>9695</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>35916</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3084,56 +3340,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X23" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>9695</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>189960</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3155,56 +3415,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>9695</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>189961</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3226,56 +3490,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X25" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>9695</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>189962</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>197</v>
       </c>
-      <c r="K26" t="s">
-        <v>198</v>
-      </c>
-      <c r="L26" t="s">
-        <v>199</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>176</v>
-      </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3297,56 +3565,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X26" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>9695</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>189963</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3364,56 +3636,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X27" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>9695</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>18956</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3431,56 +3707,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X28" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>9695</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>189964</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3492,56 +3772,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X29" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>9695</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>189965</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3565,50 +3849,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>9695</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>17704</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3622,50 +3910,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>9695</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>118068</v>
+      </c>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3677,56 +3969,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="X32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>9695</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>83539</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>238</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>239</v>
-      </c>
-      <c r="J33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K33" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" t="s">
-        <v>242</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>211</v>
-      </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3750,50 +4046,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>9695</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3807,50 +4107,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>9695</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>189966</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3874,50 +4178,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>9695</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>189967</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3941,50 +4249,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>9695</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>189968</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3998,50 +4310,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>9695</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>189969</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4061,50 +4377,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>9695</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>189970</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4118,50 +4438,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>9695</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>189971</v>
+      </c>
+      <c r="C40" t="s">
+        <v>314</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4185,50 +4509,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>9695</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>98055</v>
+      </c>
+      <c r="C41" t="s">
+        <v>320</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="K41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4252,50 +4580,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>9695</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>189972</v>
+      </c>
+      <c r="C42" t="s">
+        <v>327</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4319,50 +4651,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>9695</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>189973</v>
+      </c>
+      <c r="C43" t="s">
+        <v>333</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4386,50 +4722,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>9695</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>189974</v>
+      </c>
+      <c r="C44" t="s">
+        <v>338</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="J44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4453,50 +4793,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>9695</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>112750</v>
+      </c>
+      <c r="C45" t="s">
+        <v>344</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="J45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4516,50 +4860,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>9695</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>189975</v>
+      </c>
+      <c r="C46" t="s">
+        <v>352</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="J46" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="K46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4583,50 +4931,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>9695</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>117544</v>
+      </c>
+      <c r="C47" t="s">
+        <v>357</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="J47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="K47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4648,56 +5000,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="X47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="Y47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>9695</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>35059</v>
+      </c>
+      <c r="C48" t="s">
+        <v>366</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="J48" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4721,50 +5077,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>9695</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>189976</v>
+      </c>
+      <c r="C49" t="s">
+        <v>371</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>326</v>
       </c>
-      <c r="K49" t="s">
-        <v>327</v>
-      </c>
-      <c r="L49" t="s">
-        <v>328</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>286</v>
-      </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4786,56 +5146,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="X49" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="Y49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>9695</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>189977</v>
+      </c>
+      <c r="C50" t="s">
+        <v>378</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4859,50 +5223,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>9695</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>189978</v>
+      </c>
+      <c r="C51" t="s">
+        <v>384</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J51" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4916,50 +5284,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>9695</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>189979</v>
+      </c>
+      <c r="C52" t="s">
+        <v>389</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="K52" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4983,50 +5355,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>9695</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>189980</v>
+      </c>
+      <c r="C53" t="s">
+        <v>395</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="J53" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L53" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5050,50 +5426,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>9695</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>890</v>
+      </c>
+      <c r="C54" t="s">
+        <v>400</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="J54" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="K54" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5115,56 +5495,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="X54" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="Y54" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>9695</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>5501</v>
+      </c>
+      <c r="C55" t="s">
+        <v>409</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5186,56 +5570,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="X55" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="Y55" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>9695</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>189981</v>
+      </c>
+      <c r="C56" t="s">
+        <v>416</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="J56" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="K56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5257,56 +5645,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="X56" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="Y56" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>9695</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>9568</v>
+      </c>
+      <c r="C57" t="s">
+        <v>423</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="J57" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="K57" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5324,13 +5716,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="X57" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="Y57" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
